--- a/vbp, vab y pimp.xlsx
+++ b/vbp, vab y pimp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ivf nacion" sheetId="10" r:id="rId1"/>
@@ -18,11 +18,21 @@
     <sheet name="vbp nacion" sheetId="7" r:id="rId4"/>
     <sheet name="VBP constante caba" sheetId="4" r:id="rId5"/>
     <sheet name="VA constante caba" sheetId="3" r:id="rId6"/>
-    <sheet name="PIMP caba" sheetId="5" r:id="rId7"/>
-    <sheet name="Hoja5" sheetId="6" r:id="rId8"/>
-    <sheet name="Hoja1" sheetId="11" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="12" r:id="rId7"/>
+    <sheet name="PIMP caba" sheetId="5" r:id="rId8"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja2!$V$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja2!$V$3:$V$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja2!$W$3:$W$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja2!$S$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja2!$S$3:$S$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja2!$T$3:$T$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja2!$V$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja2!$V$3:$V$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja2!$W$3:$W$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ipi nacion'!$A$1:$CR$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ivf nacion'!$A$1:$CR$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'vab nacion'!$A$1:$CR$38</definedName>
@@ -40,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="93">
   <si>
     <t>Industria manufacturera</t>
   </si>
@@ -476,6 +486,24 @@
   <si>
     <t>VAB NACION</t>
   </si>
+  <si>
+    <t>prome</t>
+  </si>
+  <si>
+    <t>NACION: PARTICIPACIÓN POR RAMA EN EL VBP</t>
+  </si>
+  <si>
+    <t>Industria caba</t>
+  </si>
+  <si>
+    <t>promedio 04-18</t>
+  </si>
+  <si>
+    <t>Industria nacion</t>
+  </si>
+  <si>
+    <t>Fabricación de muebles y colchones</t>
+  </si>
 </sst>
 </file>
 
@@ -810,7 +838,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -961,6 +989,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Millares 2" xfId="4"/>
@@ -3046,6 +3077,117 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{00000000-6CF1-43A2-B0C3-857D6154C217}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Industria caba</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR" sz="800"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>
+</cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{00000000-D354-4A87-BE89-EA3F4F5CBC60}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Industria nacion</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR" sz="800"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>
+</cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3206,8 +3348,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3218,7 +3440,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3230,18 +3464,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3271,19 +3494,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3294,56 +3519,73 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3355,15 +3597,13 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3371,23 +3611,23 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3405,42 +3645,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="dk1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
@@ -3450,17 +3667,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
     <cs:lnRef idx="0"/>
@@ -3469,17 +3675,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:errorBar>
   <cs:floor>
     <cs:lnRef idx="0"/>
@@ -3488,12 +3683,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3527,6 +3716,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3540,17 +3730,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
@@ -3559,17 +3738,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -3581,14 +3749,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3596,7 +3764,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3609,7 +3777,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -3619,12 +3787,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3640,7 +3805,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3656,7 +3821,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3670,27 +3835,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -3703,7 +3860,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3712,18 +3869,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3734,7 +3885,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3746,18 +3909,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3787,19 +3939,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3810,46 +3964,73 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3861,36 +4042,37 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3908,42 +4090,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="dk1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
@@ -3953,17 +4112,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
     <cs:lnRef idx="0"/>
@@ -3972,17 +4120,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:errorBar>
   <cs:floor>
     <cs:lnRef idx="0"/>
@@ -3991,12 +4128,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4030,6 +4161,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4043,17 +4175,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
     <cs:lnRef idx="0"/>
@@ -4062,17 +4183,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -4084,14 +4194,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4099,7 +4209,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4112,7 +4222,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -4122,12 +4232,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4143,7 +4250,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4159,7 +4266,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4173,27 +4280,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -4206,7 +4305,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -4215,12 +4314,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4742,6 +4835,1025 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5261,6 +6373,147 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5322,7 +6575,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5658,7 +6911,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15014,6 +16267,516 @@
     <brk id="78" max="81" man="1"/>
     <brk id="91" max="81" man="1"/>
   </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>14795034502.520859</v>
+      </c>
+      <c r="C3">
+        <v>91866330490.070663</v>
+      </c>
+      <c r="D3">
+        <f>+B3/$B$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f>+C3/$C$3*100</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="73" t="str">
+        <f>+IFERROR(D3/D2-1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G3" s="73" t="str">
+        <f t="shared" ref="G3:G17" si="0">+IFERROR(E3/E2-1,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H3" s="71">
+        <f>+B3/C3</f>
+        <v>0.1610495861061956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>16197448450.458136</v>
+      </c>
+      <c r="C4">
+        <v>98685714521.410446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D17" si="1">+B4/$B$3*100</f>
+        <v>109.47895016870915</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="2">+C4/$C$3*100</f>
+        <v>107.42315927387223</v>
+      </c>
+      <c r="F4" s="73">
+        <f t="shared" ref="F4:F17" si="3">+IFERROR(D4/D3-1,"-")</f>
+        <v>9.4789501687091438E-2</v>
+      </c>
+      <c r="G4" s="73">
+        <f t="shared" si="0"/>
+        <v>7.4231592738722263E-2</v>
+      </c>
+      <c r="H4" s="71">
+        <f t="shared" ref="H4:H17" si="4">+B4/C4</f>
+        <v>0.1641316428523604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>18695570668.547733</v>
+      </c>
+      <c r="C5">
+        <v>107665903719.49126</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>126.36381932980474</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>117.19843727852859</v>
+      </c>
+      <c r="F5" s="73">
+        <f t="shared" si="3"/>
+        <v>0.15422936678763999</v>
+      </c>
+      <c r="G5" s="73">
+        <f t="shared" si="0"/>
+        <v>9.0997863689100456E-2</v>
+      </c>
+      <c r="H5" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17364430170257503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>18742695650.168762</v>
+      </c>
+      <c r="C6">
+        <v>115777417926.59608</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>126.68233823297459</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>126.02812946698666</v>
+      </c>
+      <c r="F6" s="73">
+        <f t="shared" si="3"/>
+        <v>2.5206495408192087E-3</v>
+      </c>
+      <c r="G6" s="73">
+        <f t="shared" si="0"/>
+        <v>7.5339675114215243E-2</v>
+      </c>
+      <c r="H6" s="71">
+        <f t="shared" si="4"/>
+        <v>0.16188559034933564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>19584189704.450455</v>
+      </c>
+      <c r="C7">
+        <v>119969834518.65799</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>132.3700171237424</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>130.59173461992683</v>
+      </c>
+      <c r="F7" s="73">
+        <f t="shared" si="3"/>
+        <v>4.4897173276892799E-2</v>
+      </c>
+      <c r="G7" s="73">
+        <f t="shared" si="0"/>
+        <v>3.6211004418149395E-2</v>
+      </c>
+      <c r="H7" s="71">
+        <f t="shared" si="4"/>
+        <v>0.1632426166379739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>19316927919.816742</v>
+      </c>
+      <c r="C8">
+        <v>111260235188.14905</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>130.56358818578909</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>121.11100399310557</v>
+      </c>
+      <c r="F8" s="73">
+        <f t="shared" si="3"/>
+        <v>-1.3646813509622935E-2</v>
+      </c>
+      <c r="G8" s="73">
+        <f t="shared" si="0"/>
+        <v>-7.2598244095722464E-2</v>
+      </c>
+      <c r="H8" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17361933387207415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>21297377238.820885</v>
+      </c>
+      <c r="C9">
+        <v>123396437156.71632</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>143.94949356280392</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>134.32172211347179</v>
+      </c>
+      <c r="F9" s="73">
+        <f t="shared" si="3"/>
+        <v>0.10252403111016672</v>
+      </c>
+      <c r="G9" s="73">
+        <f t="shared" si="0"/>
+        <v>0.10907942040607854</v>
+      </c>
+      <c r="H9" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17259312934434828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>22148474991.514324</v>
+      </c>
+      <c r="C10">
+        <v>132856759558.09592</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>149.70208408598538</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>144.61964339857428</v>
+      </c>
+      <c r="F10" s="73">
+        <f t="shared" si="3"/>
+        <v>3.9962561734693702E-2</v>
+      </c>
+      <c r="G10" s="73">
+        <f t="shared" si="0"/>
+        <v>7.6666090361788619E-2</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="4"/>
+        <v>0.16670943251351231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>21610991900.765026</v>
+      </c>
+      <c r="C11">
+        <v>128986208718.31839</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>146.0692227320107</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>140.40640137711804</v>
+      </c>
+      <c r="F11" s="73">
+        <f t="shared" si="3"/>
+        <v>-2.4267273072083873E-2</v>
+      </c>
+      <c r="G11" s="73">
+        <f t="shared" si="0"/>
+        <v>-2.9133262414736238E-2</v>
+      </c>
+      <c r="H11" s="71">
+        <f t="shared" si="4"/>
+        <v>0.16754498109142324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>21762917696.923882</v>
+      </c>
+      <c r="C12">
+        <v>130925557184.75768</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>147.09609290343863</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>142.51745605416198</v>
+      </c>
+      <c r="F12" s="73">
+        <f t="shared" si="3"/>
+        <v>7.0300242051120065E-3</v>
+      </c>
+      <c r="G12" s="73">
+        <f t="shared" si="0"/>
+        <v>1.5035316455222381E-2</v>
+      </c>
+      <c r="H12" s="71">
+        <f t="shared" si="4"/>
+        <v>0.16622360190694316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>21242145916.292465</v>
+      </c>
+      <c r="C13">
+        <v>124308517541.1987</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>143.57618370320876</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>135.31455635384776</v>
+      </c>
+      <c r="F13" s="73">
+        <f t="shared" si="3"/>
+        <v>-2.3929318112755893E-2</v>
+      </c>
+      <c r="G13" s="73">
+        <f t="shared" si="0"/>
+        <v>-5.0540473425071841E-2</v>
+      </c>
+      <c r="H13" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17088246514767044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>22153353278.617786</v>
+      </c>
+      <c r="C14">
+        <v>125260636657.61076</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>149.73505654781121</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>136.35097427903634</v>
+      </c>
+      <c r="F14" s="73">
+        <f t="shared" si="3"/>
+        <v>4.2896201067258222E-2</v>
+      </c>
+      <c r="G14" s="73">
+        <f t="shared" si="0"/>
+        <v>7.6593232325894434E-3</v>
+      </c>
+      <c r="H14" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17685806067848819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>20702936425.304623</v>
+      </c>
+      <c r="C15">
+        <v>118244613424.15857</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>139.9316535678044</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>128.71376574352124</v>
+      </c>
+      <c r="F15" s="73">
+        <f t="shared" si="3"/>
+        <v>-6.5471661787341873E-2</v>
+      </c>
+      <c r="G15" s="73">
+        <f t="shared" si="0"/>
+        <v>-5.6011396881447184E-2</v>
+      </c>
+      <c r="H15" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17508566205075693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>20821702791.163467</v>
+      </c>
+      <c r="C16">
+        <v>121282819388.8535</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>140.73439833895455</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>132.02096866377209</v>
+      </c>
+      <c r="F16" s="73">
+        <f t="shared" si="3"/>
+        <v>5.7366918112002896E-3</v>
+      </c>
+      <c r="G16" s="73">
+        <f t="shared" si="0"/>
+        <v>2.5694244132681954E-2</v>
+      </c>
+      <c r="H16" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17167891459057791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>20067274759.585041</v>
+      </c>
+      <c r="C17">
+        <v>115220029679.37222</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>135.63520082474881</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>125.42139112852205</v>
+      </c>
+      <c r="F17" s="73">
+        <f t="shared" si="3"/>
+        <v>-3.6232773041914634E-2</v>
+      </c>
+      <c r="G17" s="73">
+        <f t="shared" si="0"/>
+        <v>-4.9988858603648767E-2</v>
+      </c>
+      <c r="H17" s="71">
+        <f t="shared" si="4"/>
+        <v>0.17416481158204106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25135,10 +26898,10 @@
   <dimension ref="A1:EU38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="CH6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="CK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CL7" activeCellId="6" sqref="BB7 BH7 BN7 BT7 BZ7 CF7 CL7"/>
+      <selection pane="bottomRight" activeCell="CM8" sqref="CM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25173,8 +26936,8 @@
     <col min="80" max="84" width="11.42578125" style="27" customWidth="1"/>
     <col min="85" max="85" width="2" style="27" customWidth="1"/>
     <col min="86" max="90" width="11.42578125" style="27" customWidth="1"/>
-    <col min="91" max="91" width="2" style="27" customWidth="1"/>
-    <col min="92" max="94" width="11.42578125" style="27" customWidth="1"/>
+    <col min="91" max="92" width="18.140625" style="27" customWidth="1"/>
+    <col min="93" max="94" width="11.42578125" style="27" customWidth="1"/>
     <col min="95" max="256" width="11.42578125" style="27"/>
     <col min="257" max="257" width="82.85546875" style="27" customWidth="1"/>
     <col min="258" max="262" width="11.42578125" style="27" customWidth="1"/>
@@ -28222,7 +29985,10 @@
       <c r="CL7" s="34">
         <v>115220.02967937222</v>
       </c>
-      <c r="CM7" s="45"/>
+      <c r="CM7" s="75">
+        <f>+CL7/CL6</f>
+        <v>0.19581532383449596</v>
+      </c>
       <c r="CN7" s="34">
         <v>99092.877545501513</v>
       </c>
@@ -28482,7 +30248,10 @@
       <c r="CL8" s="35">
         <v>30172.04195137406</v>
       </c>
-      <c r="CM8" s="46"/>
+      <c r="CM8" s="46">
+        <f>+CL7*1000000</f>
+        <v>115220029679.37222</v>
+      </c>
       <c r="CN8" s="35">
         <v>27440.202710511498</v>
       </c>
@@ -34614,9 +36383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:P7"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36670,11 +38439,11 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="topRight" activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="bottomLeft" activeCell="Q7" sqref="Q7:Q76"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:Q8"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -37922,12 +39691,12 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="topRight" activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="bottomLeft" activeCell="Q7" sqref="Q7:Q76"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:Q8"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -38177,7 +39946,14 @@
       <c r="Q8" s="16">
         <v>20067274759.585041</v>
       </c>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22">
+        <f>+Q8/Q7</f>
+        <v>0.13417734043056942</v>
+      </c>
+      <c r="S8" s="76">
+        <f>+Q8/'vab nacion'!CM8</f>
+        <v>0.17416481158204106</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -39109,15 +40885,3379 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:W48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2004</v>
+      </c>
+      <c r="C2">
+        <v>2005</v>
+      </c>
+      <c r="D2">
+        <v>2006</v>
+      </c>
+      <c r="E2">
+        <v>2007</v>
+      </c>
+      <c r="F2">
+        <v>2008</v>
+      </c>
+      <c r="G2">
+        <v>2009</v>
+      </c>
+      <c r="H2">
+        <v>2010</v>
+      </c>
+      <c r="I2">
+        <v>2011</v>
+      </c>
+      <c r="J2">
+        <v>2012</v>
+      </c>
+      <c r="K2">
+        <v>2013</v>
+      </c>
+      <c r="L2">
+        <v>2014</v>
+      </c>
+      <c r="M2">
+        <v>2015</v>
+      </c>
+      <c r="N2">
+        <v>2016</v>
+      </c>
+      <c r="O2">
+        <v>2017</v>
+      </c>
+      <c r="P2">
+        <v>2018</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="71">
+        <f>+'VBP constante caba'!C8/'VBP constante caba'!C$8</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="71">
+        <f>+'VBP constante caba'!D8/'VBP constante caba'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="71">
+        <f>+'VBP constante caba'!E8/'VBP constante caba'!E$8</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="71">
+        <f>+'VBP constante caba'!F8/'VBP constante caba'!F$8</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="71">
+        <f>+'VBP constante caba'!G8/'VBP constante caba'!G$8</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="71">
+        <f>+'VBP constante caba'!H8/'VBP constante caba'!H$8</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="71">
+        <f>+'VBP constante caba'!I8/'VBP constante caba'!I$8</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="71">
+        <f>+'VBP constante caba'!J8/'VBP constante caba'!J$8</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="71">
+        <f>+'VBP constante caba'!K8/'VBP constante caba'!K$8</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="71">
+        <f>+'VBP constante caba'!L8/'VBP constante caba'!L$8</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="71">
+        <f>+'VBP constante caba'!M8/'VBP constante caba'!M$8</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="71">
+        <f>+'VBP constante caba'!N8/'VBP constante caba'!N$8</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="71">
+        <f>+'VBP constante caba'!O8/'VBP constante caba'!O$8</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="71">
+        <f>+'VBP constante caba'!P8/'VBP constante caba'!P$8</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="71">
+        <f>+'VBP constante caba'!Q8/'VBP constante caba'!Q$8</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="74">
+        <f>+AVERAGE(B3:P3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="71">
+        <v>0.23240147067819525</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="71">
+        <v>0.30393247420988539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="71">
+        <f>+'VBP constante caba'!C9/'VBP constante caba'!C$8</f>
+        <v>0.19439845003640352</v>
+      </c>
+      <c r="C4" s="71">
+        <f>+'VBP constante caba'!D9/'VBP constante caba'!D$8</f>
+        <v>0.20528760084697112</v>
+      </c>
+      <c r="D4" s="71">
+        <f>+'VBP constante caba'!E9/'VBP constante caba'!E$8</f>
+        <v>0.18996716604438357</v>
+      </c>
+      <c r="E4" s="71">
+        <f>+'VBP constante caba'!F9/'VBP constante caba'!F$8</f>
+        <v>0.22286347327543002</v>
+      </c>
+      <c r="F4" s="71">
+        <f>+'VBP constante caba'!G9/'VBP constante caba'!G$8</f>
+        <v>0.22550007663744615</v>
+      </c>
+      <c r="G4" s="71">
+        <f>+'VBP constante caba'!H9/'VBP constante caba'!H$8</f>
+        <v>0.23627965833017842</v>
+      </c>
+      <c r="H4" s="71">
+        <f>+'VBP constante caba'!I9/'VBP constante caba'!I$8</f>
+        <v>0.23477155570899272</v>
+      </c>
+      <c r="I4" s="71">
+        <f>+'VBP constante caba'!J9/'VBP constante caba'!J$8</f>
+        <v>0.23091872086551293</v>
+      </c>
+      <c r="J4" s="71">
+        <f>+'VBP constante caba'!K9/'VBP constante caba'!K$8</f>
+        <v>0.2276288453702571</v>
+      </c>
+      <c r="K4" s="71">
+        <f>+'VBP constante caba'!L9/'VBP constante caba'!L$8</f>
+        <v>0.21909278229825097</v>
+      </c>
+      <c r="L4" s="71">
+        <f>+'VBP constante caba'!M9/'VBP constante caba'!M$8</f>
+        <v>0.22903500381273012</v>
+      </c>
+      <c r="M4" s="71">
+        <f>+'VBP constante caba'!N9/'VBP constante caba'!N$8</f>
+        <v>0.22472834005461981</v>
+      </c>
+      <c r="N4" s="71">
+        <f>+'VBP constante caba'!O9/'VBP constante caba'!O$8</f>
+        <v>0.22901938373461964</v>
+      </c>
+      <c r="O4" s="71">
+        <f>+'VBP constante caba'!P9/'VBP constante caba'!P$8</f>
+        <v>0.23794420694786059</v>
+      </c>
+      <c r="P4" s="71">
+        <f>+'VBP constante caba'!Q9/'VBP constante caba'!Q$8</f>
+        <v>0.2401571022358979</v>
+      </c>
+      <c r="Q4" s="74">
+        <f t="shared" ref="Q4:Q20" si="0">+AVERAGE(B4:P4)</f>
+        <v>0.22317282441330369</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="71">
+        <v>0.22317282441330369</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="71">
+        <v>0.12573882054879812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="71">
+        <f>+'VBP constante caba'!C10/'VBP constante caba'!C$8</f>
+        <v>3.5981615966377285E-2</v>
+      </c>
+      <c r="C5" s="71">
+        <f>+'VBP constante caba'!D10/'VBP constante caba'!D$8</f>
+        <v>3.7502999301381151E-2</v>
+      </c>
+      <c r="D5" s="71">
+        <f>+'VBP constante caba'!E10/'VBP constante caba'!E$8</f>
+        <v>3.5180153907456164E-2</v>
+      </c>
+      <c r="E5" s="71">
+        <f>+'VBP constante caba'!F10/'VBP constante caba'!F$8</f>
+        <v>3.4975984102401332E-2</v>
+      </c>
+      <c r="F5" s="71">
+        <f>+'VBP constante caba'!G10/'VBP constante caba'!G$8</f>
+        <v>3.2995748893104415E-2</v>
+      </c>
+      <c r="G5" s="71">
+        <f>+'VBP constante caba'!H10/'VBP constante caba'!H$8</f>
+        <v>3.3956389617078947E-2</v>
+      </c>
+      <c r="H5" s="71">
+        <f>+'VBP constante caba'!I10/'VBP constante caba'!I$8</f>
+        <v>3.4663907094425135E-2</v>
+      </c>
+      <c r="I5" s="71">
+        <f>+'VBP constante caba'!J10/'VBP constante caba'!J$8</f>
+        <v>3.1363894052158683E-2</v>
+      </c>
+      <c r="J5" s="71">
+        <f>+'VBP constante caba'!K10/'VBP constante caba'!K$8</f>
+        <v>3.1188527290430729E-2</v>
+      </c>
+      <c r="K5" s="71">
+        <f>+'VBP constante caba'!L10/'VBP constante caba'!L$8</f>
+        <v>3.1492528225015165E-2</v>
+      </c>
+      <c r="L5" s="71">
+        <f>+'VBP constante caba'!M10/'VBP constante caba'!M$8</f>
+        <v>2.9706786215453994E-2</v>
+      </c>
+      <c r="M5" s="71">
+        <f>+'VBP constante caba'!N10/'VBP constante caba'!N$8</f>
+        <v>3.0872585532863501E-2</v>
+      </c>
+      <c r="N5" s="71">
+        <f>+'VBP constante caba'!O10/'VBP constante caba'!O$8</f>
+        <v>3.0008139733659366E-2</v>
+      </c>
+      <c r="O5" s="71">
+        <f>+'VBP constante caba'!P10/'VBP constante caba'!P$8</f>
+        <v>3.0799078720330116E-2</v>
+      </c>
+      <c r="P5" s="71">
+        <f>+'VBP constante caba'!Q10/'VBP constante caba'!Q$8</f>
+        <v>2.8485683274312369E-2</v>
+      </c>
+      <c r="Q5" s="74">
+        <f t="shared" si="0"/>
+        <v>3.2611601461763215E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="71">
+        <v>0.10300273381332385</v>
+      </c>
+      <c r="V5" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="71">
+        <v>8.049153444687647E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="71">
+        <f>+'VBP constante caba'!C11/'VBP constante caba'!C$8</f>
+        <v>0.1024399777705008</v>
+      </c>
+      <c r="C6" s="71">
+        <f>+'VBP constante caba'!D11/'VBP constante caba'!D$8</f>
+        <v>0.10736675284839788</v>
+      </c>
+      <c r="D6" s="71">
+        <f>+'VBP constante caba'!E11/'VBP constante caba'!E$8</f>
+        <v>0.11502488803646703</v>
+      </c>
+      <c r="E6" s="71">
+        <f>+'VBP constante caba'!F11/'VBP constante caba'!F$8</f>
+        <v>0.11058609702780668</v>
+      </c>
+      <c r="F6" s="71">
+        <f>+'VBP constante caba'!G11/'VBP constante caba'!G$8</f>
+        <v>0.11204354024818809</v>
+      </c>
+      <c r="G6" s="71">
+        <f>+'VBP constante caba'!H11/'VBP constante caba'!H$8</f>
+        <v>0.10342545097790994</v>
+      </c>
+      <c r="H6" s="71">
+        <f>+'VBP constante caba'!I11/'VBP constante caba'!I$8</f>
+        <v>0.10791532009415973</v>
+      </c>
+      <c r="I6" s="71">
+        <f>+'VBP constante caba'!J11/'VBP constante caba'!J$8</f>
+        <v>0.11092130888153678</v>
+      </c>
+      <c r="J6" s="71">
+        <f>+'VBP constante caba'!K11/'VBP constante caba'!K$8</f>
+        <v>0.11505188743454021</v>
+      </c>
+      <c r="K6" s="71">
+        <f>+'VBP constante caba'!L11/'VBP constante caba'!L$8</f>
+        <v>0.10483361479344704</v>
+      </c>
+      <c r="L6" s="71">
+        <f>+'VBP constante caba'!M11/'VBP constante caba'!M$8</f>
+        <v>9.4416190719816911E-2</v>
+      </c>
+      <c r="M6" s="71">
+        <f>+'VBP constante caba'!N11/'VBP constante caba'!N$8</f>
+        <v>9.5417797893368655E-2</v>
+      </c>
+      <c r="N6" s="71">
+        <f>+'VBP constante caba'!O11/'VBP constante caba'!O$8</f>
+        <v>9.113483974131957E-2</v>
+      </c>
+      <c r="O6" s="71">
+        <f>+'VBP constante caba'!P11/'VBP constante caba'!P$8</f>
+        <v>8.8289409659992366E-2</v>
+      </c>
+      <c r="P6" s="71">
+        <f>+'VBP constante caba'!Q11/'VBP constante caba'!Q$8</f>
+        <v>8.6173931072405979E-2</v>
+      </c>
+      <c r="Q6" s="74">
+        <f t="shared" si="0"/>
+        <v>0.10300273381332385</v>
+      </c>
+      <c r="S6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="71">
+        <v>9.5076719973889431E-2</v>
+      </c>
+      <c r="V6" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="71">
+        <v>6.6593205819849288E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="71">
+        <f>+'VBP constante caba'!C12/'VBP constante caba'!C$8</f>
+        <v>2.080206582989283E-2</v>
+      </c>
+      <c r="C7" s="71">
+        <f>+'VBP constante caba'!D12/'VBP constante caba'!D$8</f>
+        <v>2.0718952674614856E-2</v>
+      </c>
+      <c r="D7" s="71">
+        <f>+'VBP constante caba'!E12/'VBP constante caba'!E$8</f>
+        <v>2.0874302813062833E-2</v>
+      </c>
+      <c r="E7" s="71">
+        <f>+'VBP constante caba'!F12/'VBP constante caba'!F$8</f>
+        <v>2.3153660923379303E-2</v>
+      </c>
+      <c r="F7" s="71">
+        <f>+'VBP constante caba'!G12/'VBP constante caba'!G$8</f>
+        <v>2.3113195715205925E-2</v>
+      </c>
+      <c r="G7" s="71">
+        <f>+'VBP constante caba'!H12/'VBP constante caba'!H$8</f>
+        <v>2.059198898789031E-2</v>
+      </c>
+      <c r="H7" s="71">
+        <f>+'VBP constante caba'!I12/'VBP constante caba'!I$8</f>
+        <v>2.3905081268416044E-2</v>
+      </c>
+      <c r="I7" s="71">
+        <f>+'VBP constante caba'!J12/'VBP constante caba'!J$8</f>
+        <v>2.4407035908410282E-2</v>
+      </c>
+      <c r="J7" s="71">
+        <f>+'VBP constante caba'!K12/'VBP constante caba'!K$8</f>
+        <v>2.3347624774306991E-2</v>
+      </c>
+      <c r="K7" s="71">
+        <f>+'VBP constante caba'!L12/'VBP constante caba'!L$8</f>
+        <v>2.4333176584979091E-2</v>
+      </c>
+      <c r="L7" s="71">
+        <f>+'VBP constante caba'!M12/'VBP constante caba'!M$8</f>
+        <v>2.3329426256321499E-2</v>
+      </c>
+      <c r="M7" s="71">
+        <f>+'VBP constante caba'!N12/'VBP constante caba'!N$8</f>
+        <v>2.065161752010964E-2</v>
+      </c>
+      <c r="N7" s="71">
+        <f>+'VBP constante caba'!O12/'VBP constante caba'!O$8</f>
+        <v>2.193444106988917E-2</v>
+      </c>
+      <c r="O7" s="71">
+        <f>+'VBP constante caba'!P12/'VBP constante caba'!P$8</f>
+        <v>2.2205229499988814E-2</v>
+      </c>
+      <c r="P7" s="71">
+        <f>+'VBP constante caba'!Q12/'VBP constante caba'!Q$8</f>
+        <v>2.3820203110370888E-2</v>
+      </c>
+      <c r="Q7" s="74">
+        <f t="shared" si="0"/>
+        <v>2.247920019578923E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="71">
+        <v>3.5265274874640658E-2</v>
+      </c>
+      <c r="V7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="71">
+        <v>6.0875145183710726E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="71">
+        <f>+'VBP constante caba'!C13/'VBP constante caba'!C$8</f>
+        <v>2.6251393029360727E-2</v>
+      </c>
+      <c r="C8" s="71">
+        <f>+'VBP constante caba'!D13/'VBP constante caba'!D$8</f>
+        <v>2.5430290910494178E-2</v>
+      </c>
+      <c r="D8" s="71">
+        <f>+'VBP constante caba'!E13/'VBP constante caba'!E$8</f>
+        <v>2.7917612324321939E-2</v>
+      </c>
+      <c r="E8" s="71">
+        <f>+'VBP constante caba'!F13/'VBP constante caba'!F$8</f>
+        <v>2.5536035331270822E-2</v>
+      </c>
+      <c r="F8" s="71">
+        <f>+'VBP constante caba'!G13/'VBP constante caba'!G$8</f>
+        <v>2.2879405835428093E-2</v>
+      </c>
+      <c r="G8" s="71">
+        <f>+'VBP constante caba'!H13/'VBP constante caba'!H$8</f>
+        <v>2.2955257590319252E-2</v>
+      </c>
+      <c r="H8" s="71">
+        <f>+'VBP constante caba'!I13/'VBP constante caba'!I$8</f>
+        <v>2.3667082082507E-2</v>
+      </c>
+      <c r="I8" s="71">
+        <f>+'VBP constante caba'!J13/'VBP constante caba'!J$8</f>
+        <v>2.3513957949079241E-2</v>
+      </c>
+      <c r="J8" s="71">
+        <f>+'VBP constante caba'!K13/'VBP constante caba'!K$8</f>
+        <v>2.2400068687072922E-2</v>
+      </c>
+      <c r="K8" s="71">
+        <f>+'VBP constante caba'!L13/'VBP constante caba'!L$8</f>
+        <v>2.5265322835633704E-2</v>
+      </c>
+      <c r="L8" s="71">
+        <f>+'VBP constante caba'!M13/'VBP constante caba'!M$8</f>
+        <v>2.7254749776569678E-2</v>
+      </c>
+      <c r="M8" s="71">
+        <f>+'VBP constante caba'!N13/'VBP constante caba'!N$8</f>
+        <v>2.7550609181392124E-2</v>
+      </c>
+      <c r="N8" s="71">
+        <f>+'VBP constante caba'!O13/'VBP constante caba'!O$8</f>
+        <v>2.6542967741533738E-2</v>
+      </c>
+      <c r="O8" s="71">
+        <f>+'VBP constante caba'!P13/'VBP constante caba'!P$8</f>
+        <v>2.8332657732300454E-2</v>
+      </c>
+      <c r="P8" s="71">
+        <f>+'VBP constante caba'!Q13/'VBP constante caba'!Q$8</f>
+        <v>2.8941001549637174E-2</v>
+      </c>
+      <c r="Q8" s="74">
+        <f t="shared" si="0"/>
+        <v>2.5629227503794743E-2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="71">
+        <v>3.4411031033927397E-2</v>
+      </c>
+      <c r="V8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="71">
+        <v>4.8292673013118619E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="71">
+        <f>+'VBP constante caba'!C14/'VBP constante caba'!C$8</f>
+        <v>0.10963319675296226</v>
+      </c>
+      <c r="C9" s="71">
+        <f>+'VBP constante caba'!D14/'VBP constante caba'!D$8</f>
+        <v>0.11080770895552663</v>
+      </c>
+      <c r="D9" s="71">
+        <f>+'VBP constante caba'!E14/'VBP constante caba'!E$8</f>
+        <v>0.10895265076976851</v>
+      </c>
+      <c r="E9" s="71">
+        <f>+'VBP constante caba'!F14/'VBP constante caba'!F$8</f>
+        <v>9.84439129422921E-2</v>
+      </c>
+      <c r="F9" s="71">
+        <f>+'VBP constante caba'!G14/'VBP constante caba'!G$8</f>
+        <v>0.10312375803845472</v>
+      </c>
+      <c r="G9" s="71">
+        <f>+'VBP constante caba'!H14/'VBP constante caba'!H$8</f>
+        <v>0.10410239013604929</v>
+      </c>
+      <c r="H9" s="71">
+        <f>+'VBP constante caba'!I14/'VBP constante caba'!I$8</f>
+        <v>0.10423882132523495</v>
+      </c>
+      <c r="I9" s="71">
+        <f>+'VBP constante caba'!J14/'VBP constante caba'!J$8</f>
+        <v>9.8431575308790931E-2</v>
+      </c>
+      <c r="J9" s="71">
+        <f>+'VBP constante caba'!K14/'VBP constante caba'!K$8</f>
+        <v>9.2681630949756538E-2</v>
+      </c>
+      <c r="K9" s="71">
+        <f>+'VBP constante caba'!L14/'VBP constante caba'!L$8</f>
+        <v>8.9474898632104283E-2</v>
+      </c>
+      <c r="L9" s="71">
+        <f>+'VBP constante caba'!M14/'VBP constante caba'!M$8</f>
+        <v>8.373533832841136E-2</v>
+      </c>
+      <c r="M9" s="71">
+        <f>+'VBP constante caba'!N14/'VBP constante caba'!N$8</f>
+        <v>8.169997792872101E-2</v>
+      </c>
+      <c r="N9" s="71">
+        <f>+'VBP constante caba'!O14/'VBP constante caba'!O$8</f>
+        <v>7.6438077887791916E-2</v>
+      </c>
+      <c r="O9" s="71">
+        <f>+'VBP constante caba'!P14/'VBP constante caba'!P$8</f>
+        <v>8.1549442510595746E-2</v>
+      </c>
+      <c r="P9" s="71">
+        <f>+'VBP constante caba'!Q14/'VBP constante caba'!Q$8</f>
+        <v>8.2837419141881072E-2</v>
+      </c>
+      <c r="Q9" s="74">
+        <f t="shared" si="0"/>
+        <v>9.5076719973889431E-2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="71">
+        <v>3.2611601461763215E-2</v>
+      </c>
+      <c r="V9" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="71">
+        <v>3.9952222784479269E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="71">
+        <f>+'VBP constante caba'!C15/'VBP constante caba'!C$8</f>
+        <v>4.6313183381147156E-2</v>
+      </c>
+      <c r="C10" s="71">
+        <f>+'VBP constante caba'!D15/'VBP constante caba'!D$8</f>
+        <v>4.5806179546077352E-2</v>
+      </c>
+      <c r="D10" s="71">
+        <f>+'VBP constante caba'!E15/'VBP constante caba'!E$8</f>
+        <v>3.5605837912795764E-2</v>
+      </c>
+      <c r="E10" s="71">
+        <f>+'VBP constante caba'!F15/'VBP constante caba'!F$8</f>
+        <v>2.8388742368759323E-2</v>
+      </c>
+      <c r="F10" s="71">
+        <f>+'VBP constante caba'!G15/'VBP constante caba'!G$8</f>
+        <v>3.0977633516184305E-2</v>
+      </c>
+      <c r="G10" s="71">
+        <f>+'VBP constante caba'!H15/'VBP constante caba'!H$8</f>
+        <v>3.0568159986834979E-2</v>
+      </c>
+      <c r="H10" s="71">
+        <f>+'VBP constante caba'!I15/'VBP constante caba'!I$8</f>
+        <v>3.2338578386721335E-2</v>
+      </c>
+      <c r="I10" s="71">
+        <f>+'VBP constante caba'!J15/'VBP constante caba'!J$8</f>
+        <v>3.4121754577262395E-2</v>
+      </c>
+      <c r="J10" s="71">
+        <f>+'VBP constante caba'!K15/'VBP constante caba'!K$8</f>
+        <v>3.1114170335649064E-2</v>
+      </c>
+      <c r="K10" s="71">
+        <f>+'VBP constante caba'!L15/'VBP constante caba'!L$8</f>
+        <v>3.2325893817486982E-2</v>
+      </c>
+      <c r="L10" s="71">
+        <f>+'VBP constante caba'!M15/'VBP constante caba'!M$8</f>
+        <v>3.0456390796461862E-2</v>
+      </c>
+      <c r="M10" s="71">
+        <f>+'VBP constante caba'!N15/'VBP constante caba'!N$8</f>
+        <v>2.934175254747428E-2</v>
+      </c>
+      <c r="N10" s="71">
+        <f>+'VBP constante caba'!O15/'VBP constante caba'!O$8</f>
+        <v>3.3404779253661976E-2</v>
+      </c>
+      <c r="O10" s="71">
+        <f>+'VBP constante caba'!P15/'VBP constante caba'!P$8</f>
+        <v>3.578339217370919E-2</v>
+      </c>
+      <c r="P10" s="71">
+        <f>+'VBP constante caba'!Q15/'VBP constante caba'!Q$8</f>
+        <v>3.9619016908685051E-2</v>
+      </c>
+      <c r="Q10" s="74">
+        <f t="shared" si="0"/>
+        <v>3.4411031033927397E-2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="71">
+        <v>3.1698014845431541E-2</v>
+      </c>
+      <c r="V10" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="71">
+        <v>3.3260093773687466E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="71">
+        <f>+'VBP constante caba'!C16/'VBP constante caba'!C$8</f>
+        <v>0.18478028090841866</v>
+      </c>
+      <c r="C11" s="71">
+        <f>+'VBP constante caba'!D16/'VBP constante caba'!D$8</f>
+        <v>0.17327896990740713</v>
+      </c>
+      <c r="D11" s="71">
+        <f>+'VBP constante caba'!E16/'VBP constante caba'!E$8</f>
+        <v>0.18393078612335517</v>
+      </c>
+      <c r="E11" s="71">
+        <f>+'VBP constante caba'!F16/'VBP constante caba'!F$8</f>
+        <v>0.19965227215866707</v>
+      </c>
+      <c r="F11" s="71">
+        <f>+'VBP constante caba'!G16/'VBP constante caba'!G$8</f>
+        <v>0.20319047248222186</v>
+      </c>
+      <c r="G11" s="71">
+        <f>+'VBP constante caba'!H16/'VBP constante caba'!H$8</f>
+        <v>0.22409086050377897</v>
+      </c>
+      <c r="H11" s="71">
+        <f>+'VBP constante caba'!I16/'VBP constante caba'!I$8</f>
+        <v>0.22023991773291665</v>
+      </c>
+      <c r="I11" s="71">
+        <f>+'VBP constante caba'!J16/'VBP constante caba'!J$8</f>
+        <v>0.22707549754112233</v>
+      </c>
+      <c r="J11" s="71">
+        <f>+'VBP constante caba'!K16/'VBP constante caba'!K$8</f>
+        <v>0.25083042794258698</v>
+      </c>
+      <c r="K11" s="71">
+        <f>+'VBP constante caba'!L16/'VBP constante caba'!L$8</f>
+        <v>0.26097699767258697</v>
+      </c>
+      <c r="L11" s="71">
+        <f>+'VBP constante caba'!M16/'VBP constante caba'!M$8</f>
+        <v>0.27183541580919496</v>
+      </c>
+      <c r="M11" s="71">
+        <f>+'VBP constante caba'!N16/'VBP constante caba'!N$8</f>
+        <v>0.28187233778872167</v>
+      </c>
+      <c r="N11" s="71">
+        <f>+'VBP constante caba'!O16/'VBP constante caba'!O$8</f>
+        <v>0.28568260951647634</v>
+      </c>
+      <c r="O11" s="71">
+        <f>+'VBP constante caba'!P16/'VBP constante caba'!P$8</f>
+        <v>0.26123470921762432</v>
+      </c>
+      <c r="P11" s="71">
+        <f>+'VBP constante caba'!Q16/'VBP constante caba'!Q$8</f>
+        <v>0.25735050486784966</v>
+      </c>
+      <c r="Q11" s="74">
+        <f t="shared" si="0"/>
+        <v>0.23240147067819525</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="71">
+        <v>3.0118891000776186E-2</v>
+      </c>
+      <c r="V11" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="71">
+        <v>2.9200695375177794E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="71">
+        <f>+'VBP constante caba'!C17/'VBP constante caba'!C$8</f>
+        <v>2.7882657298489148E-2</v>
+      </c>
+      <c r="C12" s="71">
+        <f>+'VBP constante caba'!D17/'VBP constante caba'!D$8</f>
+        <v>2.6341373495476484E-2</v>
+      </c>
+      <c r="D12" s="71">
+        <f>+'VBP constante caba'!E17/'VBP constante caba'!E$8</f>
+        <v>2.6968467113220828E-2</v>
+      </c>
+      <c r="E12" s="71">
+        <f>+'VBP constante caba'!F17/'VBP constante caba'!F$8</f>
+        <v>2.6207048027817023E-2</v>
+      </c>
+      <c r="F12" s="71">
+        <f>+'VBP constante caba'!G17/'VBP constante caba'!G$8</f>
+        <v>2.3836747256893439E-2</v>
+      </c>
+      <c r="G12" s="71">
+        <f>+'VBP constante caba'!H17/'VBP constante caba'!H$8</f>
+        <v>2.2653440697719341E-2</v>
+      </c>
+      <c r="H12" s="71">
+        <f>+'VBP constante caba'!I17/'VBP constante caba'!I$8</f>
+        <v>2.240776528628808E-2</v>
+      </c>
+      <c r="I12" s="71">
+        <f>+'VBP constante caba'!J17/'VBP constante caba'!J$8</f>
+        <v>2.2264821706851592E-2</v>
+      </c>
+      <c r="J12" s="71">
+        <f>+'VBP constante caba'!K17/'VBP constante caba'!K$8</f>
+        <v>2.5365934710749948E-2</v>
+      </c>
+      <c r="K12" s="71">
+        <f>+'VBP constante caba'!L17/'VBP constante caba'!L$8</f>
+        <v>2.6693903305454306E-2</v>
+      </c>
+      <c r="L12" s="71">
+        <f>+'VBP constante caba'!M17/'VBP constante caba'!M$8</f>
+        <v>3.2752783810393926E-2</v>
+      </c>
+      <c r="M12" s="71">
+        <f>+'VBP constante caba'!N17/'VBP constante caba'!N$8</f>
+        <v>3.3752958483288679E-2</v>
+      </c>
+      <c r="N12" s="71">
+        <f>+'VBP constante caba'!O17/'VBP constante caba'!O$8</f>
+        <v>3.34578975917647E-2</v>
+      </c>
+      <c r="O12" s="71">
+        <f>+'VBP constante caba'!P17/'VBP constante caba'!P$8</f>
+        <v>3.1571590918630911E-2</v>
+      </c>
+      <c r="P12" s="71">
+        <f>+'VBP constante caba'!Q17/'VBP constante caba'!Q$8</f>
+        <v>3.2173212538635441E-2</v>
+      </c>
+      <c r="Q12" s="74">
+        <f t="shared" si="0"/>
+        <v>2.7622040149444922E-2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="71">
+        <v>2.7622040149444922E-2</v>
+      </c>
+      <c r="V12" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="71">
+        <v>2.7648669354884903E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="71">
+        <f>+'VBP constante caba'!C18/'VBP constante caba'!C$8</f>
+        <v>2.1155049576504929E-2</v>
+      </c>
+      <c r="C13" s="71">
+        <f>+'VBP constante caba'!D18/'VBP constante caba'!D$8</f>
+        <v>1.8973935220985474E-2</v>
+      </c>
+      <c r="D13" s="71">
+        <f>+'VBP constante caba'!E18/'VBP constante caba'!E$8</f>
+        <v>2.2118241842889439E-2</v>
+      </c>
+      <c r="E13" s="71">
+        <f>+'VBP constante caba'!F18/'VBP constante caba'!F$8</f>
+        <v>1.9098526835209018E-2</v>
+      </c>
+      <c r="F13" s="71">
+        <f>+'VBP constante caba'!G18/'VBP constante caba'!G$8</f>
+        <v>1.7219713768746807E-2</v>
+      </c>
+      <c r="G13" s="71">
+        <f>+'VBP constante caba'!H18/'VBP constante caba'!H$8</f>
+        <v>1.2098995087717865E-2</v>
+      </c>
+      <c r="H13" s="71">
+        <f>+'VBP constante caba'!I18/'VBP constante caba'!I$8</f>
+        <v>1.4759655451014844E-2</v>
+      </c>
+      <c r="I13" s="71">
+        <f>+'VBP constante caba'!J18/'VBP constante caba'!J$8</f>
+        <v>1.4513005314751084E-2</v>
+      </c>
+      <c r="J13" s="71">
+        <f>+'VBP constante caba'!K18/'VBP constante caba'!K$8</f>
+        <v>1.1522984180947405E-2</v>
+      </c>
+      <c r="K13" s="71">
+        <f>+'VBP constante caba'!L18/'VBP constante caba'!L$8</f>
+        <v>1.2402477443953229E-2</v>
+      </c>
+      <c r="L13" s="71">
+        <f>+'VBP constante caba'!M18/'VBP constante caba'!M$8</f>
+        <v>1.3318340684983533E-2</v>
+      </c>
+      <c r="M13" s="71">
+        <f>+'VBP constante caba'!N18/'VBP constante caba'!N$8</f>
+        <v>1.4132579266010225E-2</v>
+      </c>
+      <c r="N13" s="71">
+        <f>+'VBP constante caba'!O18/'VBP constante caba'!O$8</f>
+        <v>1.255103995580494E-2</v>
+      </c>
+      <c r="O13" s="71">
+        <f>+'VBP constante caba'!P18/'VBP constante caba'!P$8</f>
+        <v>1.3974398452923802E-2</v>
+      </c>
+      <c r="P13" s="71">
+        <f>+'VBP constante caba'!Q18/'VBP constante caba'!Q$8</f>
+        <v>1.2719017905684367E-2</v>
+      </c>
+      <c r="Q13" s="74">
+        <f t="shared" si="0"/>
+        <v>1.5370530732541797E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="71">
+        <v>2.5629227503794743E-2</v>
+      </c>
+      <c r="V13" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="71">
+        <v>2.5856643240362725E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="71">
+        <f>+'VBP constante caba'!C19/'VBP constante caba'!C$8</f>
+        <v>4.0513393597559379E-2</v>
+      </c>
+      <c r="C14" s="71">
+        <f>+'VBP constante caba'!D19/'VBP constante caba'!D$8</f>
+        <v>3.1956438179867541E-2</v>
+      </c>
+      <c r="D14" s="71">
+        <f>+'VBP constante caba'!E19/'VBP constante caba'!E$8</f>
+        <v>3.1474688334434509E-2</v>
+      </c>
+      <c r="E14" s="71">
+        <f>+'VBP constante caba'!F19/'VBP constante caba'!F$8</f>
+        <v>3.0781294004071664E-2</v>
+      </c>
+      <c r="F14" s="71">
+        <f>+'VBP constante caba'!G19/'VBP constante caba'!G$8</f>
+        <v>3.0258594855498533E-2</v>
+      </c>
+      <c r="G14" s="71">
+        <f>+'VBP constante caba'!H19/'VBP constante caba'!H$8</f>
+        <v>2.5267558235383535E-2</v>
+      </c>
+      <c r="H14" s="71">
+        <f>+'VBP constante caba'!I19/'VBP constante caba'!I$8</f>
+        <v>2.4992139287683072E-2</v>
+      </c>
+      <c r="I14" s="71">
+        <f>+'VBP constante caba'!J19/'VBP constante caba'!J$8</f>
+        <v>2.6614992269414679E-2</v>
+      </c>
+      <c r="J14" s="71">
+        <f>+'VBP constante caba'!K19/'VBP constante caba'!K$8</f>
+        <v>2.9349610389481359E-2</v>
+      </c>
+      <c r="K14" s="71">
+        <f>+'VBP constante caba'!L19/'VBP constante caba'!L$8</f>
+        <v>3.0879649573134525E-2</v>
+      </c>
+      <c r="L14" s="71">
+        <f>+'VBP constante caba'!M19/'VBP constante caba'!M$8</f>
+        <v>3.066473315153884E-2</v>
+      </c>
+      <c r="M14" s="71">
+        <f>+'VBP constante caba'!N19/'VBP constante caba'!N$8</f>
+        <v>2.9961553926836634E-2</v>
+      </c>
+      <c r="N14" s="71">
+        <f>+'VBP constante caba'!O19/'VBP constante caba'!O$8</f>
+        <v>2.945237273437331E-2</v>
+      </c>
+      <c r="O14" s="71">
+        <f>+'VBP constante caba'!P19/'VBP constante caba'!P$8</f>
+        <v>2.9797641620164354E-2</v>
+      </c>
+      <c r="P14" s="71">
+        <f>+'VBP constante caba'!Q19/'VBP constante caba'!Q$8</f>
+        <v>2.981870485220086E-2</v>
+      </c>
+      <c r="Q14" s="74">
+        <f t="shared" si="0"/>
+        <v>3.0118891000776186E-2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="71">
+        <v>2.247920019578923E-2</v>
+      </c>
+      <c r="V14" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="71">
+        <v>2.5246008981695191E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="71">
+        <f>+'VBP constante caba'!C20/'VBP constante caba'!C$8</f>
+        <v>3.4353736609214355E-2</v>
+      </c>
+      <c r="C15" s="71">
+        <f>+'VBP constante caba'!D20/'VBP constante caba'!D$8</f>
+        <v>3.9991189702418634E-2</v>
+      </c>
+      <c r="D15" s="71">
+        <f>+'VBP constante caba'!E20/'VBP constante caba'!E$8</f>
+        <v>3.9149624073862313E-2</v>
+      </c>
+      <c r="E15" s="71">
+        <f>+'VBP constante caba'!F20/'VBP constante caba'!F$8</f>
+        <v>3.211554772034312E-2</v>
+      </c>
+      <c r="F15" s="71">
+        <f>+'VBP constante caba'!G20/'VBP constante caba'!G$8</f>
+        <v>3.340963066676176E-2</v>
+      </c>
+      <c r="G15" s="71">
+        <f>+'VBP constante caba'!H20/'VBP constante caba'!H$8</f>
+        <v>3.1514514770283247E-2</v>
+      </c>
+      <c r="H15" s="71">
+        <f>+'VBP constante caba'!I20/'VBP constante caba'!I$8</f>
+        <v>3.0544868656876445E-2</v>
+      </c>
+      <c r="I15" s="71">
+        <f>+'VBP constante caba'!J20/'VBP constante caba'!J$8</f>
+        <v>3.047971379560618E-2</v>
+      </c>
+      <c r="J15" s="71">
+        <f>+'VBP constante caba'!K20/'VBP constante caba'!K$8</f>
+        <v>3.2008887662455139E-2</v>
+      </c>
+      <c r="K15" s="71">
+        <f>+'VBP constante caba'!L20/'VBP constante caba'!L$8</f>
+        <v>3.5821946185490255E-2</v>
+      </c>
+      <c r="L15" s="71">
+        <f>+'VBP constante caba'!M20/'VBP constante caba'!M$8</f>
+        <v>3.4705547789465357E-2</v>
+      </c>
+      <c r="M15" s="71">
+        <f>+'VBP constante caba'!N20/'VBP constante caba'!N$8</f>
+        <v>3.7844767064714263E-2</v>
+      </c>
+      <c r="N15" s="71">
+        <f>+'VBP constante caba'!O20/'VBP constante caba'!O$8</f>
+        <v>3.8305957288110315E-2</v>
+      </c>
+      <c r="O15" s="71">
+        <f>+'VBP constante caba'!P20/'VBP constante caba'!P$8</f>
+        <v>3.7513109160219944E-2</v>
+      </c>
+      <c r="P15" s="71">
+        <f>+'VBP constante caba'!Q20/'VBP constante caba'!Q$8</f>
+        <v>4.1220081973788535E-2</v>
+      </c>
+      <c r="Q15" s="74">
+        <f t="shared" si="0"/>
+        <v>3.5265274874640658E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="71">
+        <v>2.0765388720954847E-2</v>
+      </c>
+      <c r="V15" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="71">
+        <v>2.434926064612114E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="71">
+        <f>+'VBP constante caba'!C21/'VBP constante caba'!C$8</f>
+        <v>1.5484811548000325E-2</v>
+      </c>
+      <c r="C16" s="71">
+        <f>+'VBP constante caba'!D21/'VBP constante caba'!D$8</f>
+        <v>1.0640421021726151E-2</v>
+      </c>
+      <c r="D16" s="71">
+        <f>+'VBP constante caba'!E21/'VBP constante caba'!E$8</f>
+        <v>1.2523935650379779E-2</v>
+      </c>
+      <c r="E16" s="71">
+        <f>+'VBP constante caba'!F21/'VBP constante caba'!F$8</f>
+        <v>8.881834544232952E-3</v>
+      </c>
+      <c r="F16" s="71">
+        <f>+'VBP constante caba'!G21/'VBP constante caba'!G$8</f>
+        <v>7.4413400386961056E-3</v>
+      </c>
+      <c r="G16" s="71">
+        <f>+'VBP constante caba'!H21/'VBP constante caba'!H$8</f>
+        <v>6.0444227278974652E-3</v>
+      </c>
+      <c r="H16" s="71">
+        <f>+'VBP constante caba'!I21/'VBP constante caba'!I$8</f>
+        <v>4.444504103846998E-3</v>
+      </c>
+      <c r="I16" s="71">
+        <f>+'VBP constante caba'!J21/'VBP constante caba'!J$8</f>
+        <v>4.3332757754951136E-3</v>
+      </c>
+      <c r="J16" s="71">
+        <f>+'VBP constante caba'!K21/'VBP constante caba'!K$8</f>
+        <v>4.3332757754951127E-3</v>
+      </c>
+      <c r="K16" s="71">
+        <f>+'VBP constante caba'!L21/'VBP constante caba'!L$8</f>
+        <v>4.708348591896244E-3</v>
+      </c>
+      <c r="L16" s="71">
+        <f>+'VBP constante caba'!M21/'VBP constante caba'!M$8</f>
+        <v>4.5280480603826162E-3</v>
+      </c>
+      <c r="M16" s="71">
+        <f>+'VBP constante caba'!N21/'VBP constante caba'!N$8</f>
+        <v>3.4676986687045921E-3</v>
+      </c>
+      <c r="N16" s="71">
+        <f>+'VBP constante caba'!O21/'VBP constante caba'!O$8</f>
+        <v>3.1029599116243829E-3</v>
+      </c>
+      <c r="O16" s="71">
+        <f>+'VBP constante caba'!P21/'VBP constante caba'!P$8</f>
+        <v>2.8133081871032257E-3</v>
+      </c>
+      <c r="P16" s="71">
+        <f>+'VBP constante caba'!Q21/'VBP constante caba'!Q$8</f>
+        <v>1.4469807500169702E-3</v>
+      </c>
+      <c r="Q16" s="74">
+        <f t="shared" si="0"/>
+        <v>6.2796776903665356E-3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="71">
+        <v>1.5370530732541797E-2</v>
+      </c>
+      <c r="V16" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="71">
+        <v>2.1428567260722408E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="71">
+        <f>+'VBP constante caba'!C22/'VBP constante caba'!C$8</f>
+        <v>2.2143927814002217E-2</v>
+      </c>
+      <c r="C17" s="71">
+        <f>+'VBP constante caba'!D22/'VBP constante caba'!D$8</f>
+        <v>2.0949464187966893E-2</v>
+      </c>
+      <c r="D17" s="71">
+        <f>+'VBP constante caba'!E22/'VBP constante caba'!E$8</f>
+        <v>2.0411258519236287E-2</v>
+      </c>
+      <c r="E17" s="71">
+        <f>+'VBP constante caba'!F22/'VBP constante caba'!F$8</f>
+        <v>2.1005058302635854E-2</v>
+      </c>
+      <c r="F17" s="71">
+        <f>+'VBP constante caba'!G22/'VBP constante caba'!G$8</f>
+        <v>2.0396789798575062E-2</v>
+      </c>
+      <c r="G17" s="71">
+        <f>+'VBP constante caba'!H22/'VBP constante caba'!H$8</f>
+        <v>2.2719589730804141E-2</v>
+      </c>
+      <c r="H17" s="71">
+        <f>+'VBP constante caba'!I22/'VBP constante caba'!I$8</f>
+        <v>2.2250707068239624E-2</v>
+      </c>
+      <c r="I17" s="71">
+        <f>+'VBP constante caba'!J22/'VBP constante caba'!J$8</f>
+        <v>2.3107736755166131E-2</v>
+      </c>
+      <c r="J17" s="71">
+        <f>+'VBP constante caba'!K22/'VBP constante caba'!K$8</f>
+        <v>1.8966182550449229E-2</v>
+      </c>
+      <c r="K17" s="71">
+        <f>+'VBP constante caba'!L22/'VBP constante caba'!L$8</f>
+        <v>1.9845412903696111E-2</v>
+      </c>
+      <c r="L17" s="71">
+        <f>+'VBP constante caba'!M22/'VBP constante caba'!M$8</f>
+        <v>1.9372396720540166E-2</v>
+      </c>
+      <c r="M17" s="71">
+        <f>+'VBP constante caba'!N22/'VBP constante caba'!N$8</f>
+        <v>2.1225155728332279E-2</v>
+      </c>
+      <c r="N17" s="71">
+        <f>+'VBP constante caba'!O22/'VBP constante caba'!O$8</f>
+        <v>1.9133158864848485E-2</v>
+      </c>
+      <c r="O17" s="71">
+        <f>+'VBP constante caba'!P22/'VBP constante caba'!P$8</f>
+        <v>1.9938117694981258E-2</v>
+      </c>
+      <c r="P17" s="71">
+        <f>+'VBP constante caba'!Q22/'VBP constante caba'!Q$8</f>
+        <v>2.001587417484892E-2</v>
+      </c>
+      <c r="Q17" s="74">
+        <f t="shared" si="0"/>
+        <v>2.0765388720954847E-2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="71">
+        <v>1.2810143386519672E-2</v>
+      </c>
+      <c r="V17" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="71">
+        <v>1.9623759760000171E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="71">
+        <f>+'VBP constante caba'!C23/'VBP constante caba'!C$8</f>
+        <v>2.3086777366814838E-2</v>
+      </c>
+      <c r="C18" s="71">
+        <f>+'VBP constante caba'!D23/'VBP constante caba'!D$8</f>
+        <v>1.8965191793428659E-2</v>
+      </c>
+      <c r="D18" s="71">
+        <f>+'VBP constante caba'!E23/'VBP constante caba'!E$8</f>
+        <v>1.7927478608207439E-2</v>
+      </c>
+      <c r="E18" s="71">
+        <f>+'VBP constante caba'!F23/'VBP constante caba'!F$8</f>
+        <v>1.4359810571697018E-2</v>
+      </c>
+      <c r="F18" s="71">
+        <f>+'VBP constante caba'!G23/'VBP constante caba'!G$8</f>
+        <v>1.1531263338535009E-2</v>
+      </c>
+      <c r="G18" s="71">
+        <f>+'VBP constante caba'!H23/'VBP constante caba'!H$8</f>
+        <v>1.0415832425828124E-2</v>
+      </c>
+      <c r="H18" s="71">
+        <f>+'VBP constante caba'!I23/'VBP constante caba'!I$8</f>
+        <v>1.2864840482821854E-2</v>
+      </c>
+      <c r="I18" s="71">
+        <f>+'VBP constante caba'!J23/'VBP constante caba'!J$8</f>
+        <v>1.32332501656541E-2</v>
+      </c>
+      <c r="J18" s="71">
+        <f>+'VBP constante caba'!K23/'VBP constante caba'!K$8</f>
+        <v>1.189043172805624E-2</v>
+      </c>
+      <c r="K18" s="71">
+        <f>+'VBP constante caba'!L23/'VBP constante caba'!L$8</f>
+        <v>1.1791119252962974E-2</v>
+      </c>
+      <c r="L18" s="71">
+        <f>+'VBP constante caba'!M23/'VBP constante caba'!M$8</f>
+        <v>1.0264199264903028E-2</v>
+      </c>
+      <c r="M18" s="71">
+        <f>+'VBP constante caba'!N23/'VBP constante caba'!N$8</f>
+        <v>9.1805679445372337E-3</v>
+      </c>
+      <c r="N18" s="71">
+        <f>+'VBP constante caba'!O23/'VBP constante caba'!O$8</f>
+        <v>8.2792005481638273E-3</v>
+      </c>
+      <c r="O18" s="71">
+        <f>+'VBP constante caba'!P23/'VBP constante caba'!P$8</f>
+        <v>8.87481897322491E-3</v>
+      </c>
+      <c r="P18" s="71">
+        <f>+'VBP constante caba'!Q23/'VBP constante caba'!Q$8</f>
+        <v>9.4873683329598345E-3</v>
+      </c>
+      <c r="Q18" s="74">
+        <f t="shared" si="0"/>
+        <v>1.2810143386519672E-2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="71">
+        <v>6.2796776903665356E-3</v>
+      </c>
+      <c r="V18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" s="71">
+        <v>1.9458665623562632E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="71">
+        <f>+'VBP constante caba'!C24/'VBP constante caba'!C$8</f>
+        <v>3.3071523867249472E-2</v>
+      </c>
+      <c r="C19" s="71">
+        <f>+'VBP constante caba'!D24/'VBP constante caba'!D$8</f>
+        <v>3.6734642995458491E-2</v>
+      </c>
+      <c r="D19" s="71">
+        <f>+'VBP constante caba'!E24/'VBP constante caba'!E$8</f>
+        <v>4.8402617199706718E-2</v>
+      </c>
+      <c r="E19" s="71">
+        <f>+'VBP constante caba'!F24/'VBP constante caba'!F$8</f>
+        <v>4.2309138367435717E-2</v>
+      </c>
+      <c r="F19" s="71">
+        <f>+'VBP constante caba'!G24/'VBP constante caba'!G$8</f>
+        <v>4.098241276500933E-2</v>
+      </c>
+      <c r="G19" s="71">
+        <f>+'VBP constante caba'!H24/'VBP constante caba'!H$8</f>
+        <v>3.7672100547024037E-2</v>
+      </c>
+      <c r="H19" s="71">
+        <f>+'VBP constante caba'!I24/'VBP constante caba'!I$8</f>
+        <v>3.9157141314564284E-2</v>
+      </c>
+      <c r="I19" s="71">
+        <f>+'VBP constante caba'!J24/'VBP constante caba'!J$8</f>
+        <v>3.9006587224998522E-2</v>
+      </c>
+      <c r="J19" s="71">
+        <f>+'VBP constante caba'!K24/'VBP constante caba'!K$8</f>
+        <v>2.4771530511812134E-2</v>
+      </c>
+      <c r="K19" s="71">
+        <f>+'VBP constante caba'!L24/'VBP constante caba'!L$8</f>
+        <v>2.525342420247547E-2</v>
+      </c>
+      <c r="L19" s="71">
+        <f>+'VBP constante caba'!M24/'VBP constante caba'!M$8</f>
+        <v>2.0787515364233938E-2</v>
+      </c>
+      <c r="M19" s="71">
+        <f>+'VBP constante caba'!N24/'VBP constante caba'!N$8</f>
+        <v>2.1974973287119223E-2</v>
+      </c>
+      <c r="N19" s="71">
+        <f>+'VBP constante caba'!O24/'VBP constante caba'!O$8</f>
+        <v>2.119762313136872E-2</v>
+      </c>
+      <c r="O19" s="71">
+        <f>+'VBP constante caba'!P24/'VBP constante caba'!P$8</f>
+        <v>2.2767667780760541E-2</v>
+      </c>
+      <c r="P19" s="71">
+        <f>+'VBP constante caba'!Q24/'VBP constante caba'!Q$8</f>
+        <v>2.1381324122256452E-2</v>
+      </c>
+      <c r="Q19" s="74">
+        <f t="shared" si="0"/>
+        <v>3.1698014845431541E-2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="71">
+        <v>5.1285229525337012E-2</v>
+      </c>
+      <c r="V19" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" s="71">
+        <v>1.3377786018525762E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="71">
+        <f>+'VBP constante caba'!C25/'VBP constante caba'!C$8</f>
+        <v>6.1707958647101838E-2</v>
+      </c>
+      <c r="C20" s="71">
+        <f>+'VBP constante caba'!D25/'VBP constante caba'!D$8</f>
+        <v>6.9247888411801226E-2</v>
+      </c>
+      <c r="D20" s="71">
+        <f>+'VBP constante caba'!E25/'VBP constante caba'!E$8</f>
+        <v>6.3570290726451442E-2</v>
+      </c>
+      <c r="E20" s="71">
+        <f>+'VBP constante caba'!F25/'VBP constante caba'!F$8</f>
+        <v>6.1641563496551116E-2</v>
+      </c>
+      <c r="F20" s="71">
+        <f>+'VBP constante caba'!G25/'VBP constante caba'!G$8</f>
+        <v>6.1099676145050366E-2</v>
+      </c>
+      <c r="G20" s="71">
+        <f>+'VBP constante caba'!H25/'VBP constante caba'!H$8</f>
+        <v>5.5643389647301943E-2</v>
+      </c>
+      <c r="H20" s="71">
+        <f>+'VBP constante caba'!I25/'VBP constante caba'!I$8</f>
+        <v>4.6838114655291203E-2</v>
+      </c>
+      <c r="I20" s="71">
+        <f>+'VBP constante caba'!J25/'VBP constante caba'!J$8</f>
+        <v>4.5692871908189027E-2</v>
+      </c>
+      <c r="J20" s="71">
+        <f>+'VBP constante caba'!K25/'VBP constante caba'!K$8</f>
+        <v>4.7547979705952988E-2</v>
+      </c>
+      <c r="K20" s="71">
+        <f>+'VBP constante caba'!L25/'VBP constante caba'!L$8</f>
+        <v>4.4808503681432715E-2</v>
+      </c>
+      <c r="L20" s="71">
+        <f>+'VBP constante caba'!M25/'VBP constante caba'!M$8</f>
+        <v>4.3837133438598096E-2</v>
+      </c>
+      <c r="M20" s="71">
+        <f>+'VBP constante caba'!N25/'VBP constante caba'!N$8</f>
+        <v>3.6324727183186044E-2</v>
+      </c>
+      <c r="N20" s="71">
+        <f>+'VBP constante caba'!O25/'VBP constante caba'!O$8</f>
+        <v>4.0354551294989278E-2</v>
+      </c>
+      <c r="O20" s="71">
+        <f>+'VBP constante caba'!P25/'VBP constante caba'!P$8</f>
+        <v>4.6611220749589316E-2</v>
+      </c>
+      <c r="P20" s="71">
+        <f>+'VBP constante caba'!Q25/'VBP constante caba'!Q$8</f>
+        <v>4.43525731885685E-2</v>
+      </c>
+      <c r="Q20" s="74">
+        <f t="shared" si="0"/>
+        <v>5.1285229525337012E-2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="71">
+        <v>1</v>
+      </c>
+      <c r="V20" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="71">
+        <v>1.11857871424434E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V21" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="71">
+        <v>5.5709568825293007E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="71">
+        <v>5.4372906337233871E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2004</v>
+      </c>
+      <c r="C23">
+        <v>2005</v>
+      </c>
+      <c r="D23">
+        <v>2006</v>
+      </c>
+      <c r="E23">
+        <v>2007</v>
+      </c>
+      <c r="F23">
+        <v>2008</v>
+      </c>
+      <c r="G23">
+        <v>2009</v>
+      </c>
+      <c r="H23">
+        <v>2010</v>
+      </c>
+      <c r="I23">
+        <v>2011</v>
+      </c>
+      <c r="J23">
+        <v>2012</v>
+      </c>
+      <c r="K23">
+        <v>2013</v>
+      </c>
+      <c r="L23">
+        <v>2014</v>
+      </c>
+      <c r="M23">
+        <v>2015</v>
+      </c>
+      <c r="N23">
+        <v>2016</v>
+      </c>
+      <c r="O23">
+        <v>2017</v>
+      </c>
+      <c r="P23">
+        <v>2018</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" s="71">
+        <v>5.0783676836854271E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="71">
+        <f>+'vbp nacion'!B7/'vbp nacion'!B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="71">
+        <f>+'vbp nacion'!C7/'vbp nacion'!C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="71">
+        <f>+'vbp nacion'!D7/'vbp nacion'!D$7</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="71">
+        <f>+'vbp nacion'!E7/'vbp nacion'!E$7</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="71">
+        <f>+'vbp nacion'!F7/'vbp nacion'!F$7</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="71">
+        <f>+'vbp nacion'!G7/'vbp nacion'!G$7</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="71">
+        <f>+'vbp nacion'!H7/'vbp nacion'!H$7</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="71">
+        <f>+'vbp nacion'!I7/'vbp nacion'!I$7</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="71">
+        <f>+'vbp nacion'!J7/'vbp nacion'!J$7</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="71">
+        <f>+'vbp nacion'!K7/'vbp nacion'!K$7</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="71">
+        <f>+'vbp nacion'!L7/'vbp nacion'!L$7</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="71">
+        <f>+'vbp nacion'!M7/'vbp nacion'!M$7</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="71">
+        <f>+'vbp nacion'!N7/'vbp nacion'!N$7</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="71">
+        <f>+'vbp nacion'!O7/'vbp nacion'!O$7</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="71">
+        <f>+'vbp nacion'!P7/'vbp nacion'!P$7</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="74">
+        <f t="shared" ref="Q24:Q48" si="1">+AVERAGE(B24:P24)</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="71">
+        <v>3.1898701447530811E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="71">
+        <f>+'vbp nacion'!B8/'vbp nacion'!B$7</f>
+        <v>0.30971925775854448</v>
+      </c>
+      <c r="C25" s="71">
+        <f>+'vbp nacion'!C8/'vbp nacion'!C$7</f>
+        <v>0.31584858855760944</v>
+      </c>
+      <c r="D25" s="71">
+        <f>+'vbp nacion'!D8/'vbp nacion'!D$7</f>
+        <v>0.31156498315283265</v>
+      </c>
+      <c r="E25" s="71">
+        <f>+'vbp nacion'!E8/'vbp nacion'!E$7</f>
+        <v>0.30755016646438638</v>
+      </c>
+      <c r="F25" s="71">
+        <f>+'vbp nacion'!F8/'vbp nacion'!F$7</f>
+        <v>0.30614123171861612</v>
+      </c>
+      <c r="G25" s="71">
+        <f>+'vbp nacion'!G8/'vbp nacion'!G$7</f>
+        <v>0.3276822066938796</v>
+      </c>
+      <c r="H25" s="71">
+        <f>+'vbp nacion'!H8/'vbp nacion'!H$7</f>
+        <v>0.29294187094490132</v>
+      </c>
+      <c r="I25" s="71">
+        <f>+'vbp nacion'!I8/'vbp nacion'!I$7</f>
+        <v>0.28317539549890447</v>
+      </c>
+      <c r="J25" s="71">
+        <f>+'vbp nacion'!J8/'vbp nacion'!J$7</f>
+        <v>0.2834660920808868</v>
+      </c>
+      <c r="K25" s="71">
+        <f>+'vbp nacion'!K8/'vbp nacion'!K$7</f>
+        <v>0.27844992050032047</v>
+      </c>
+      <c r="L25" s="71">
+        <f>+'vbp nacion'!L8/'vbp nacion'!L$7</f>
+        <v>0.2953526289407517</v>
+      </c>
+      <c r="M25" s="71">
+        <f>+'vbp nacion'!M8/'vbp nacion'!M$7</f>
+        <v>0.30564335317402436</v>
+      </c>
+      <c r="N25" s="71">
+        <f>+'vbp nacion'!N8/'vbp nacion'!N$7</f>
+        <v>0.31689164714516316</v>
+      </c>
+      <c r="O25" s="71">
+        <f>+'vbp nacion'!O8/'vbp nacion'!O$7</f>
+        <v>0.30905931847647167</v>
+      </c>
+      <c r="P25" s="71">
+        <f>+'vbp nacion'!P8/'vbp nacion'!P$7</f>
+        <v>0.31550045204098875</v>
+      </c>
+      <c r="Q25" s="74">
+        <f t="shared" si="1"/>
+        <v>0.30393247420988539</v>
+      </c>
+      <c r="V25" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="71">
+        <v>2.8279888835252426E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="71">
+        <f>+'vbp nacion'!B9/'vbp nacion'!B$7</f>
+        <v>7.0888860417834309E-3</v>
+      </c>
+      <c r="C26" s="71">
+        <f>+'vbp nacion'!C9/'vbp nacion'!C$7</f>
+        <v>6.3015905949290645E-3</v>
+      </c>
+      <c r="D26" s="71">
+        <f>+'vbp nacion'!D9/'vbp nacion'!D$7</f>
+        <v>6.0626168521317704E-3</v>
+      </c>
+      <c r="E26" s="71">
+        <f>+'vbp nacion'!E9/'vbp nacion'!E$7</f>
+        <v>5.6619037500496155E-3</v>
+      </c>
+      <c r="F26" s="71">
+        <f>+'vbp nacion'!F9/'vbp nacion'!F$7</f>
+        <v>5.8481853872537218E-3</v>
+      </c>
+      <c r="G26" s="71">
+        <f>+'vbp nacion'!G9/'vbp nacion'!G$7</f>
+        <v>6.2036781787787954E-3</v>
+      </c>
+      <c r="H26" s="71">
+        <f>+'vbp nacion'!H9/'vbp nacion'!H$7</f>
+        <v>5.4830034277076984E-3</v>
+      </c>
+      <c r="I26" s="71">
+        <f>+'vbp nacion'!I9/'vbp nacion'!I$7</f>
+        <v>5.0787884608247784E-3</v>
+      </c>
+      <c r="J26" s="71">
+        <f>+'vbp nacion'!J9/'vbp nacion'!J$7</f>
+        <v>5.2628063080738304E-3</v>
+      </c>
+      <c r="K26" s="71">
+        <f>+'vbp nacion'!K9/'vbp nacion'!K$7</f>
+        <v>4.9684916049440638E-3</v>
+      </c>
+      <c r="L26" s="71">
+        <f>+'vbp nacion'!L9/'vbp nacion'!L$7</f>
+        <v>5.383669529310374E-3</v>
+      </c>
+      <c r="M26" s="71">
+        <f>+'vbp nacion'!M9/'vbp nacion'!M$7</f>
+        <v>5.0045363185775918E-3</v>
+      </c>
+      <c r="N26" s="71">
+        <f>+'vbp nacion'!N9/'vbp nacion'!N$7</f>
+        <v>4.456452734415005E-3</v>
+      </c>
+      <c r="O26" s="71">
+        <f>+'vbp nacion'!O9/'vbp nacion'!O$7</f>
+        <v>4.460611271083042E-3</v>
+      </c>
+      <c r="P26" s="71">
+        <f>+'vbp nacion'!P9/'vbp nacion'!P$7</f>
+        <v>4.2941390459880144E-3</v>
+      </c>
+      <c r="Q26" s="74">
+        <f t="shared" si="1"/>
+        <v>5.4372906337233871E-3</v>
+      </c>
+      <c r="V26" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="W26" s="71">
+        <v>1.383512587882103E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="71">
+        <f>+'vbp nacion'!B10/'vbp nacion'!B$7</f>
+        <v>2.6977234970124941E-2</v>
+      </c>
+      <c r="C27" s="71">
+        <f>+'vbp nacion'!C10/'vbp nacion'!C$7</f>
+        <v>2.8169512408387214E-2</v>
+      </c>
+      <c r="D27" s="71">
+        <f>+'vbp nacion'!D10/'vbp nacion'!D$7</f>
+        <v>2.6576052454599618E-2</v>
+      </c>
+      <c r="E27" s="71">
+        <f>+'vbp nacion'!E10/'vbp nacion'!E$7</f>
+        <v>2.7158901787266425E-2</v>
+      </c>
+      <c r="F27" s="71">
+        <f>+'vbp nacion'!F10/'vbp nacion'!F$7</f>
+        <v>2.4151860983669012E-2</v>
+      </c>
+      <c r="G27" s="71">
+        <f>+'vbp nacion'!G10/'vbp nacion'!G$7</f>
+        <v>2.4453165955442661E-2</v>
+      </c>
+      <c r="H27" s="71">
+        <f>+'vbp nacion'!H10/'vbp nacion'!H$7</f>
+        <v>2.6351835321461337E-2</v>
+      </c>
+      <c r="I27" s="71">
+        <f>+'vbp nacion'!I10/'vbp nacion'!I$7</f>
+        <v>2.5252026032196805E-2</v>
+      </c>
+      <c r="J27" s="71">
+        <f>+'vbp nacion'!J10/'vbp nacion'!J$7</f>
+        <v>2.3452527765373828E-2</v>
+      </c>
+      <c r="K27" s="71">
+        <f>+'vbp nacion'!K10/'vbp nacion'!K$7</f>
+        <v>2.2195429376080891E-2</v>
+      </c>
+      <c r="L27" s="71">
+        <f>+'vbp nacion'!L10/'vbp nacion'!L$7</f>
+        <v>2.4514836272195382E-2</v>
+      </c>
+      <c r="M27" s="71">
+        <f>+'vbp nacion'!M10/'vbp nacion'!M$7</f>
+        <v>2.3805500330313981E-2</v>
+      </c>
+      <c r="N27" s="71">
+        <f>+'vbp nacion'!N10/'vbp nacion'!N$7</f>
+        <v>2.2283552655372883E-2</v>
+      </c>
+      <c r="O27" s="71">
+        <f>+'vbp nacion'!O10/'vbp nacion'!O$7</f>
+        <v>2.0460374650058302E-2</v>
+      </c>
+      <c r="P27" s="71">
+        <f>+'vbp nacion'!P10/'vbp nacion'!P$7</f>
+        <v>1.9436098729273803E-2</v>
+      </c>
+      <c r="Q27" s="74">
+        <f t="shared" si="1"/>
+        <v>2.434926064612114E-2</v>
+      </c>
+      <c r="V27" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="71">
+        <f>+'vbp nacion'!B11/'vbp nacion'!B$7</f>
+        <v>2.541949757734948E-2</v>
+      </c>
+      <c r="C28" s="71">
+        <f>+'vbp nacion'!C11/'vbp nacion'!C$7</f>
+        <v>2.8927065693896917E-2</v>
+      </c>
+      <c r="D28" s="71">
+        <f>+'vbp nacion'!D11/'vbp nacion'!D$7</f>
+        <v>2.7070254076316434E-2</v>
+      </c>
+      <c r="E28" s="71">
+        <f>+'vbp nacion'!E11/'vbp nacion'!E$7</f>
+        <v>2.6359545839314567E-2</v>
+      </c>
+      <c r="F28" s="71">
+        <f>+'vbp nacion'!F11/'vbp nacion'!F$7</f>
+        <v>2.6587320491722643E-2</v>
+      </c>
+      <c r="G28" s="71">
+        <f>+'vbp nacion'!G11/'vbp nacion'!G$7</f>
+        <v>2.7802129228475178E-2</v>
+      </c>
+      <c r="H28" s="71">
+        <f>+'vbp nacion'!H11/'vbp nacion'!H$7</f>
+        <v>2.7709168638054411E-2</v>
+      </c>
+      <c r="I28" s="71">
+        <f>+'vbp nacion'!I11/'vbp nacion'!I$7</f>
+        <v>2.8298279102037249E-2</v>
+      </c>
+      <c r="J28" s="71">
+        <f>+'vbp nacion'!J11/'vbp nacion'!J$7</f>
+        <v>2.6816097840761943E-2</v>
+      </c>
+      <c r="K28" s="71">
+        <f>+'vbp nacion'!K11/'vbp nacion'!K$7</f>
+        <v>2.7051038353435603E-2</v>
+      </c>
+      <c r="L28" s="71">
+        <f>+'vbp nacion'!L11/'vbp nacion'!L$7</f>
+        <v>2.5060454941750358E-2</v>
+      </c>
+      <c r="M28" s="71">
+        <f>+'vbp nacion'!M11/'vbp nacion'!M$7</f>
+        <v>2.5876465668384922E-2</v>
+      </c>
+      <c r="N28" s="71">
+        <f>+'vbp nacion'!N11/'vbp nacion'!N$7</f>
+        <v>2.3915707403837742E-2</v>
+      </c>
+      <c r="O28" s="71">
+        <f>+'vbp nacion'!O11/'vbp nacion'!O$7</f>
+        <v>2.0855247897639102E-2</v>
+      </c>
+      <c r="P28" s="71">
+        <f>+'vbp nacion'!P11/'vbp nacion'!P$7</f>
+        <v>2.0101375852464284E-2</v>
+      </c>
+      <c r="Q28" s="74">
+        <f t="shared" si="1"/>
+        <v>2.5856643240362725E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="71">
+        <f>+'vbp nacion'!B12/'vbp nacion'!B$7</f>
+        <v>2.3633362499070654E-2</v>
+      </c>
+      <c r="C29" s="71">
+        <f>+'vbp nacion'!C12/'vbp nacion'!C$7</f>
+        <v>2.1589307887963809E-2</v>
+      </c>
+      <c r="D29" s="71">
+        <f>+'vbp nacion'!D12/'vbp nacion'!D$7</f>
+        <v>2.1866164622304059E-2</v>
+      </c>
+      <c r="E29" s="71">
+        <f>+'vbp nacion'!E12/'vbp nacion'!E$7</f>
+        <v>2.2322441923226872E-2</v>
+      </c>
+      <c r="F29" s="71">
+        <f>+'vbp nacion'!F12/'vbp nacion'!F$7</f>
+        <v>2.040373412567318E-2</v>
+      </c>
+      <c r="G29" s="71">
+        <f>+'vbp nacion'!G12/'vbp nacion'!G$7</f>
+        <v>2.0154584069326534E-2</v>
+      </c>
+      <c r="H29" s="71">
+        <f>+'vbp nacion'!H12/'vbp nacion'!H$7</f>
+        <v>2.2613248977487597E-2</v>
+      </c>
+      <c r="I29" s="71">
+        <f>+'vbp nacion'!I12/'vbp nacion'!I$7</f>
+        <v>1.9740159541251776E-2</v>
+      </c>
+      <c r="J29" s="71">
+        <f>+'vbp nacion'!J12/'vbp nacion'!J$7</f>
+        <v>1.8238667598663515E-2</v>
+      </c>
+      <c r="K29" s="71">
+        <f>+'vbp nacion'!K12/'vbp nacion'!K$7</f>
+        <v>1.8131242510673353E-2</v>
+      </c>
+      <c r="L29" s="71">
+        <f>+'vbp nacion'!L12/'vbp nacion'!L$7</f>
+        <v>1.8807503648601523E-2</v>
+      </c>
+      <c r="M29" s="71">
+        <f>+'vbp nacion'!M12/'vbp nacion'!M$7</f>
+        <v>1.7512327315395152E-2</v>
+      </c>
+      <c r="N29" s="71">
+        <f>+'vbp nacion'!N12/'vbp nacion'!N$7</f>
+        <v>1.7423062817414195E-2</v>
+      </c>
+      <c r="O29" s="71">
+        <f>+'vbp nacion'!O12/'vbp nacion'!O$7</f>
+        <v>1.5555705971016107E-2</v>
+      </c>
+      <c r="P29" s="71">
+        <f>+'vbp nacion'!P12/'vbp nacion'!P$7</f>
+        <v>1.6364882891934232E-2</v>
+      </c>
+      <c r="Q29" s="74">
+        <f t="shared" si="1"/>
+        <v>1.9623759760000171E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="71">
+        <f>+'vbp nacion'!B13/'vbp nacion'!B$7</f>
+        <v>1.5959777704778456E-2</v>
+      </c>
+      <c r="C30" s="71">
+        <f>+'vbp nacion'!C13/'vbp nacion'!C$7</f>
+        <v>1.374868148065045E-2</v>
+      </c>
+      <c r="D30" s="71">
+        <f>+'vbp nacion'!D13/'vbp nacion'!D$7</f>
+        <v>1.3640125469017736E-2</v>
+      </c>
+      <c r="E30" s="71">
+        <f>+'vbp nacion'!E13/'vbp nacion'!E$7</f>
+        <v>1.264776122788804E-2</v>
+      </c>
+      <c r="F30" s="71">
+        <f>+'vbp nacion'!F13/'vbp nacion'!F$7</f>
+        <v>1.1606149510976799E-2</v>
+      </c>
+      <c r="G30" s="71">
+        <f>+'vbp nacion'!G13/'vbp nacion'!G$7</f>
+        <v>1.091835133306656E-2</v>
+      </c>
+      <c r="H30" s="71">
+        <f>+'vbp nacion'!H13/'vbp nacion'!H$7</f>
+        <v>1.0706021605441235E-2</v>
+      </c>
+      <c r="I30" s="71">
+        <f>+'vbp nacion'!I13/'vbp nacion'!I$7</f>
+        <v>1.0811494020266829E-2</v>
+      </c>
+      <c r="J30" s="71">
+        <f>+'vbp nacion'!J13/'vbp nacion'!J$7</f>
+        <v>1.0311641440898836E-2</v>
+      </c>
+      <c r="K30" s="71">
+        <f>+'vbp nacion'!K13/'vbp nacion'!K$7</f>
+        <v>1.0703693540284855E-2</v>
+      </c>
+      <c r="L30" s="71">
+        <f>+'vbp nacion'!L13/'vbp nacion'!L$7</f>
+        <v>9.5101666419978442E-3</v>
+      </c>
+      <c r="M30" s="71">
+        <f>+'vbp nacion'!M13/'vbp nacion'!M$7</f>
+        <v>9.357693940864633E-3</v>
+      </c>
+      <c r="N30" s="71">
+        <f>+'vbp nacion'!N13/'vbp nacion'!N$7</f>
+        <v>8.9258754378533766E-3</v>
+      </c>
+      <c r="O30" s="71">
+        <f>+'vbp nacion'!O13/'vbp nacion'!O$7</f>
+        <v>9.3297781413741419E-3</v>
+      </c>
+      <c r="P30" s="71">
+        <f>+'vbp nacion'!P13/'vbp nacion'!P$7</f>
+        <v>9.6095956412912183E-3</v>
+      </c>
+      <c r="Q30" s="74">
+        <f t="shared" si="1"/>
+        <v>1.11857871424434E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="71">
+        <f>+'vbp nacion'!B14/'vbp nacion'!B$7</f>
+        <v>2.8992673440627902E-2</v>
+      </c>
+      <c r="C31" s="71">
+        <f>+'vbp nacion'!C14/'vbp nacion'!C$7</f>
+        <v>2.9968595651439663E-2</v>
+      </c>
+      <c r="D31" s="71">
+        <f>+'vbp nacion'!D14/'vbp nacion'!D$7</f>
+        <v>2.9943262822361458E-2</v>
+      </c>
+      <c r="E31" s="71">
+        <f>+'vbp nacion'!E14/'vbp nacion'!E$7</f>
+        <v>3.000245025060215E-2</v>
+      </c>
+      <c r="F31" s="71">
+        <f>+'vbp nacion'!F14/'vbp nacion'!F$7</f>
+        <v>2.9075208861877498E-2</v>
+      </c>
+      <c r="G31" s="71">
+        <f>+'vbp nacion'!G14/'vbp nacion'!G$7</f>
+        <v>2.8772393230270216E-2</v>
+      </c>
+      <c r="H31" s="71">
+        <f>+'vbp nacion'!H14/'vbp nacion'!H$7</f>
+        <v>2.8071541850114148E-2</v>
+      </c>
+      <c r="I31" s="71">
+        <f>+'vbp nacion'!I14/'vbp nacion'!I$7</f>
+        <v>2.7043806772080944E-2</v>
+      </c>
+      <c r="J31" s="71">
+        <f>+'vbp nacion'!J14/'vbp nacion'!J$7</f>
+        <v>2.6843872454862364E-2</v>
+      </c>
+      <c r="K31" s="71">
+        <f>+'vbp nacion'!K14/'vbp nacion'!K$7</f>
+        <v>2.5781819810219975E-2</v>
+      </c>
+      <c r="L31" s="71">
+        <f>+'vbp nacion'!L14/'vbp nacion'!L$7</f>
+        <v>2.7311946402711257E-2</v>
+      </c>
+      <c r="M31" s="71">
+        <f>+'vbp nacion'!M14/'vbp nacion'!M$7</f>
+        <v>2.5788201400627927E-2</v>
+      </c>
+      <c r="N31" s="71">
+        <f>+'vbp nacion'!N14/'vbp nacion'!N$7</f>
+        <v>2.5784549117121296E-2</v>
+      </c>
+      <c r="O31" s="71">
+        <f>+'vbp nacion'!O14/'vbp nacion'!O$7</f>
+        <v>2.5265611584989731E-2</v>
+      </c>
+      <c r="P31" s="71">
+        <f>+'vbp nacion'!P14/'vbp nacion'!P$7</f>
+        <v>2.6084106673366934E-2</v>
+      </c>
+      <c r="Q31" s="74">
+        <f t="shared" si="1"/>
+        <v>2.7648669354884903E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="71">
+        <f>+'vbp nacion'!B15/'vbp nacion'!B$7</f>
+        <v>2.4935321157793462E-2</v>
+      </c>
+      <c r="C32" s="71">
+        <f>+'vbp nacion'!C15/'vbp nacion'!C$7</f>
+        <v>2.5091331643889245E-2</v>
+      </c>
+      <c r="D32" s="71">
+        <f>+'vbp nacion'!D15/'vbp nacion'!D$7</f>
+        <v>2.5963373981190738E-2</v>
+      </c>
+      <c r="E32" s="71">
+        <f>+'vbp nacion'!E15/'vbp nacion'!E$7</f>
+        <v>2.693904769734767E-2</v>
+      </c>
+      <c r="F32" s="71">
+        <f>+'vbp nacion'!F15/'vbp nacion'!F$7</f>
+        <v>2.8358502676898795E-2</v>
+      </c>
+      <c r="G32" s="71">
+        <f>+'vbp nacion'!G15/'vbp nacion'!G$7</f>
+        <v>2.8255240210771498E-2</v>
+      </c>
+      <c r="H32" s="71">
+        <f>+'vbp nacion'!H15/'vbp nacion'!H$7</f>
+        <v>2.7247277494100781E-2</v>
+      </c>
+      <c r="I32" s="71">
+        <f>+'vbp nacion'!I15/'vbp nacion'!I$7</f>
+        <v>2.8697008924047342E-2</v>
+      </c>
+      <c r="J32" s="71">
+        <f>+'vbp nacion'!J15/'vbp nacion'!J$7</f>
+        <v>2.7081229687809728E-2</v>
+      </c>
+      <c r="K32" s="71">
+        <f>+'vbp nacion'!K15/'vbp nacion'!K$7</f>
+        <v>2.686194285442713E-2</v>
+      </c>
+      <c r="L32" s="71">
+        <f>+'vbp nacion'!L15/'vbp nacion'!L$7</f>
+        <v>2.4350470255127498E-2</v>
+      </c>
+      <c r="M32" s="71">
+        <f>+'vbp nacion'!M15/'vbp nacion'!M$7</f>
+        <v>2.1666003757485282E-2</v>
+      </c>
+      <c r="N32" s="71">
+        <f>+'vbp nacion'!N15/'vbp nacion'!N$7</f>
+        <v>2.1334879619982271E-2</v>
+      </c>
+      <c r="O32" s="71">
+        <f>+'vbp nacion'!O15/'vbp nacion'!O$7</f>
+        <v>2.0995369989081938E-2</v>
+      </c>
+      <c r="P32" s="71">
+        <f>+'vbp nacion'!P15/'vbp nacion'!P$7</f>
+        <v>2.0913134775474535E-2</v>
+      </c>
+      <c r="Q32" s="74">
+        <f t="shared" si="1"/>
+        <v>2.5246008981695191E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="71">
+        <f>+'vbp nacion'!B16/'vbp nacion'!B$7</f>
+        <v>8.2299792695250104E-2</v>
+      </c>
+      <c r="C33" s="71">
+        <f>+'vbp nacion'!C16/'vbp nacion'!C$7</f>
+        <v>7.5634191677229026E-2</v>
+      </c>
+      <c r="D33" s="71">
+        <f>+'vbp nacion'!D16/'vbp nacion'!D$7</f>
+        <v>7.1148086306847283E-2</v>
+      </c>
+      <c r="E33" s="71">
+        <f>+'vbp nacion'!E16/'vbp nacion'!E$7</f>
+        <v>6.9852613434616323E-2</v>
+      </c>
+      <c r="F33" s="71">
+        <f>+'vbp nacion'!F16/'vbp nacion'!F$7</f>
+        <v>6.500125498998989E-2</v>
+      </c>
+      <c r="G33" s="71">
+        <f>+'vbp nacion'!G16/'vbp nacion'!G$7</f>
+        <v>6.7084157276349254E-2</v>
+      </c>
+      <c r="H33" s="71">
+        <f>+'vbp nacion'!H16/'vbp nacion'!H$7</f>
+        <v>6.3192462571871957E-2</v>
+      </c>
+      <c r="I33" s="71">
+        <f>+'vbp nacion'!I16/'vbp nacion'!I$7</f>
+        <v>5.7970628313383635E-2</v>
+      </c>
+      <c r="J33" s="71">
+        <f>+'vbp nacion'!J16/'vbp nacion'!J$7</f>
+        <v>6.1050638028848039E-2</v>
+      </c>
+      <c r="K33" s="71">
+        <f>+'vbp nacion'!K16/'vbp nacion'!K$7</f>
+        <v>5.9961420745323617E-2</v>
+      </c>
+      <c r="L33" s="71">
+        <f>+'vbp nacion'!L16/'vbp nacion'!L$7</f>
+        <v>6.306234391696762E-2</v>
+      </c>
+      <c r="M33" s="71">
+        <f>+'vbp nacion'!M16/'vbp nacion'!M$7</f>
+        <v>6.5461258180534707E-2</v>
+      </c>
+      <c r="N33" s="71">
+        <f>+'vbp nacion'!N16/'vbp nacion'!N$7</f>
+        <v>6.6936776962988276E-2</v>
+      </c>
+      <c r="O33" s="71">
+        <f>+'vbp nacion'!O16/'vbp nacion'!O$7</f>
+        <v>6.5131476459435081E-2</v>
+      </c>
+      <c r="P33" s="71">
+        <f>+'vbp nacion'!P16/'vbp nacion'!P$7</f>
+        <v>6.5110985738104463E-2</v>
+      </c>
+      <c r="Q33" s="74">
+        <f t="shared" si="1"/>
+        <v>6.6593205819849288E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="71">
+        <f>+'vbp nacion'!B17/'vbp nacion'!B$7</f>
+        <v>0.12346459030744028</v>
+      </c>
+      <c r="C34" s="71">
+        <f>+'vbp nacion'!C17/'vbp nacion'!C$7</f>
+        <v>0.11643365499601203</v>
+      </c>
+      <c r="D34" s="71">
+        <f>+'vbp nacion'!D17/'vbp nacion'!D$7</f>
+        <v>0.11376021036931921</v>
+      </c>
+      <c r="E34" s="71">
+        <f>+'vbp nacion'!E17/'vbp nacion'!E$7</f>
+        <v>0.10978434568468327</v>
+      </c>
+      <c r="F34" s="71">
+        <f>+'vbp nacion'!F17/'vbp nacion'!F$7</f>
+        <v>0.11553986589263922</v>
+      </c>
+      <c r="G34" s="71">
+        <f>+'vbp nacion'!G17/'vbp nacion'!G$7</f>
+        <v>0.12600104749808111</v>
+      </c>
+      <c r="H34" s="71">
+        <f>+'vbp nacion'!H17/'vbp nacion'!H$7</f>
+        <v>0.11998396624823933</v>
+      </c>
+      <c r="I34" s="71">
+        <f>+'vbp nacion'!I17/'vbp nacion'!I$7</f>
+        <v>0.11768733880500643</v>
+      </c>
+      <c r="J34" s="71">
+        <f>+'vbp nacion'!J17/'vbp nacion'!J$7</f>
+        <v>0.12626265036098358</v>
+      </c>
+      <c r="K34" s="71">
+        <f>+'vbp nacion'!K17/'vbp nacion'!K$7</f>
+        <v>0.13133684297456866</v>
+      </c>
+      <c r="L34" s="71">
+        <f>+'vbp nacion'!L17/'vbp nacion'!L$7</f>
+        <v>0.13761030787314374</v>
+      </c>
+      <c r="M34" s="71">
+        <f>+'vbp nacion'!M17/'vbp nacion'!M$7</f>
+        <v>0.13608390324854885</v>
+      </c>
+      <c r="N34" s="71">
+        <f>+'vbp nacion'!N17/'vbp nacion'!N$7</f>
+        <v>0.13970074235502958</v>
+      </c>
+      <c r="O34" s="71">
+        <f>+'vbp nacion'!O17/'vbp nacion'!O$7</f>
+        <v>0.13709050053857283</v>
+      </c>
+      <c r="P34" s="71">
+        <f>+'vbp nacion'!P17/'vbp nacion'!P$7</f>
+        <v>0.13534234107970372</v>
+      </c>
+      <c r="Q34" s="74">
+        <f t="shared" si="1"/>
+        <v>0.12573882054879812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="71">
+        <f>+'vbp nacion'!B18/'vbp nacion'!B$7</f>
+        <v>4.3680774569710569E-2</v>
+      </c>
+      <c r="C35" s="71">
+        <f>+'vbp nacion'!C18/'vbp nacion'!C$7</f>
+        <v>4.1663743460770272E-2</v>
+      </c>
+      <c r="D35" s="71">
+        <f>+'vbp nacion'!D18/'vbp nacion'!D$7</f>
+        <v>4.0350273801230491E-2</v>
+      </c>
+      <c r="E35" s="71">
+        <f>+'vbp nacion'!E18/'vbp nacion'!E$7</f>
+        <v>4.0850174373847768E-2</v>
+      </c>
+      <c r="F35" s="71">
+        <f>+'vbp nacion'!F18/'vbp nacion'!F$7</f>
+        <v>3.648059240204448E-2</v>
+      </c>
+      <c r="G35" s="71">
+        <f>+'vbp nacion'!G18/'vbp nacion'!G$7</f>
+        <v>3.8480758968031825E-2</v>
+      </c>
+      <c r="H35" s="71">
+        <f>+'vbp nacion'!H18/'vbp nacion'!H$7</f>
+        <v>4.0045141960642419E-2</v>
+      </c>
+      <c r="I35" s="71">
+        <f>+'vbp nacion'!I18/'vbp nacion'!I$7</f>
+        <v>3.9280602834378869E-2</v>
+      </c>
+      <c r="J35" s="71">
+        <f>+'vbp nacion'!J18/'vbp nacion'!J$7</f>
+        <v>4.0317970460233984E-2</v>
+      </c>
+      <c r="K35" s="71">
+        <f>+'vbp nacion'!K18/'vbp nacion'!K$7</f>
+        <v>3.9951175489051374E-2</v>
+      </c>
+      <c r="L35" s="71">
+        <f>+'vbp nacion'!L18/'vbp nacion'!L$7</f>
+        <v>4.0276872030419263E-2</v>
+      </c>
+      <c r="M35" s="71">
+        <f>+'vbp nacion'!M18/'vbp nacion'!M$7</f>
+        <v>4.2602799530347762E-2</v>
+      </c>
+      <c r="N35" s="71">
+        <f>+'vbp nacion'!N18/'vbp nacion'!N$7</f>
+        <v>3.9411681120742871E-2</v>
+      </c>
+      <c r="O35" s="71">
+        <f>+'vbp nacion'!O18/'vbp nacion'!O$7</f>
+        <v>3.9134511154897036E-2</v>
+      </c>
+      <c r="P35" s="71">
+        <f>+'vbp nacion'!P18/'vbp nacion'!P$7</f>
+        <v>3.6756269610839942E-2</v>
+      </c>
+      <c r="Q35" s="74">
+        <f t="shared" si="1"/>
+        <v>3.9952222784479269E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="71">
+        <f>+'vbp nacion'!B19/'vbp nacion'!B$7</f>
+        <v>2.4847758943750187E-2</v>
+      </c>
+      <c r="C36" s="71">
+        <f>+'vbp nacion'!C19/'vbp nacion'!C$7</f>
+        <v>2.7095614629563902E-2</v>
+      </c>
+      <c r="D36" s="71">
+        <f>+'vbp nacion'!D19/'vbp nacion'!D$7</f>
+        <v>3.0060101770397595E-2</v>
+      </c>
+      <c r="E36" s="71">
+        <f>+'vbp nacion'!E19/'vbp nacion'!E$7</f>
+        <v>3.012829172493375E-2</v>
+      </c>
+      <c r="F36" s="71">
+        <f>+'vbp nacion'!F19/'vbp nacion'!F$7</f>
+        <v>2.9912727387728499E-2</v>
+      </c>
+      <c r="G36" s="71">
+        <f>+'vbp nacion'!G19/'vbp nacion'!G$7</f>
+        <v>2.8630269222447786E-2</v>
+      </c>
+      <c r="H36" s="71">
+        <f>+'vbp nacion'!H19/'vbp nacion'!H$7</f>
+        <v>2.8344498839408507E-2</v>
+      </c>
+      <c r="I36" s="71">
+        <f>+'vbp nacion'!I19/'vbp nacion'!I$7</f>
+        <v>2.8310146256342688E-2</v>
+      </c>
+      <c r="J36" s="71">
+        <f>+'vbp nacion'!J19/'vbp nacion'!J$7</f>
+        <v>2.7832197431606392E-2</v>
+      </c>
+      <c r="K36" s="71">
+        <f>+'vbp nacion'!K19/'vbp nacion'!K$7</f>
+        <v>2.9520253849913004E-2</v>
+      </c>
+      <c r="L36" s="71">
+        <f>+'vbp nacion'!L19/'vbp nacion'!L$7</f>
+        <v>2.9661672923059115E-2</v>
+      </c>
+      <c r="M36" s="71">
+        <f>+'vbp nacion'!M19/'vbp nacion'!M$7</f>
+        <v>3.0276964833339318E-2</v>
+      </c>
+      <c r="N36" s="71">
+        <f>+'vbp nacion'!N19/'vbp nacion'!N$7</f>
+        <v>2.9790204399312556E-2</v>
+      </c>
+      <c r="O36" s="71">
+        <f>+'vbp nacion'!O19/'vbp nacion'!O$7</f>
+        <v>3.1051766212134235E-2</v>
+      </c>
+      <c r="P36" s="71">
+        <f>+'vbp nacion'!P19/'vbp nacion'!P$7</f>
+        <v>3.2547962203729373E-2</v>
+      </c>
+      <c r="Q36" s="74">
+        <f t="shared" si="1"/>
+        <v>2.9200695375177794E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="71">
+        <f>+'vbp nacion'!B20/'vbp nacion'!B$7</f>
+        <v>7.1668922268968038E-2</v>
+      </c>
+      <c r="C37" s="71">
+        <f>+'vbp nacion'!C20/'vbp nacion'!C$7</f>
+        <v>6.7766245384277404E-2</v>
+      </c>
+      <c r="D37" s="71">
+        <f>+'vbp nacion'!D20/'vbp nacion'!D$7</f>
+        <v>6.5745360743151141E-2</v>
+      </c>
+      <c r="E37" s="71">
+        <f>+'vbp nacion'!E20/'vbp nacion'!E$7</f>
+        <v>6.0555261901227196E-2</v>
+      </c>
+      <c r="F37" s="71">
+        <f>+'vbp nacion'!F20/'vbp nacion'!F$7</f>
+        <v>6.4962330657101386E-2</v>
+      </c>
+      <c r="G37" s="71">
+        <f>+'vbp nacion'!G20/'vbp nacion'!G$7</f>
+        <v>5.6502480730474418E-2</v>
+      </c>
+      <c r="H37" s="71">
+        <f>+'vbp nacion'!H20/'vbp nacion'!H$7</f>
+        <v>6.1647332955981612E-2</v>
+      </c>
+      <c r="I37" s="71">
+        <f>+'vbp nacion'!I20/'vbp nacion'!I$7</f>
+        <v>5.9692397819794178E-2</v>
+      </c>
+      <c r="J37" s="71">
+        <f>+'vbp nacion'!J20/'vbp nacion'!J$7</f>
+        <v>5.7844339968924526E-2</v>
+      </c>
+      <c r="K37" s="71">
+        <f>+'vbp nacion'!K20/'vbp nacion'!K$7</f>
+        <v>5.9097232150536298E-2</v>
+      </c>
+      <c r="L37" s="71">
+        <f>+'vbp nacion'!L20/'vbp nacion'!L$7</f>
+        <v>6.1396693536387367E-2</v>
+      </c>
+      <c r="M37" s="71">
+        <f>+'vbp nacion'!M20/'vbp nacion'!M$7</f>
+        <v>5.3651729932140749E-2</v>
+      </c>
+      <c r="N37" s="71">
+        <f>+'vbp nacion'!N20/'vbp nacion'!N$7</f>
+        <v>5.1591675530132483E-2</v>
+      </c>
+      <c r="O37" s="71">
+        <f>+'vbp nacion'!O20/'vbp nacion'!O$7</f>
+        <v>5.796233812405846E-2</v>
+      </c>
+      <c r="P37" s="71">
+        <f>+'vbp nacion'!P20/'vbp nacion'!P$7</f>
+        <v>6.3042836052505657E-2</v>
+      </c>
+      <c r="Q37" s="74">
+        <f t="shared" si="1"/>
+        <v>6.0875145183710726E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="71">
+        <f>+'vbp nacion'!B21/'vbp nacion'!B$7</f>
+        <v>3.6630790827087811E-2</v>
+      </c>
+      <c r="C38" s="71">
+        <f>+'vbp nacion'!C21/'vbp nacion'!C$7</f>
+        <v>3.710103807973817E-2</v>
+      </c>
+      <c r="D38" s="71">
+        <f>+'vbp nacion'!D21/'vbp nacion'!D$7</f>
+        <v>3.7576227205593178E-2</v>
+      </c>
+      <c r="E38" s="71">
+        <f>+'vbp nacion'!E21/'vbp nacion'!E$7</f>
+        <v>3.778899964385081E-2</v>
+      </c>
+      <c r="F38" s="71">
+        <f>+'vbp nacion'!F21/'vbp nacion'!F$7</f>
+        <v>3.8739626198825934E-2</v>
+      </c>
+      <c r="G38" s="71">
+        <f>+'vbp nacion'!G21/'vbp nacion'!G$7</f>
+        <v>3.427721280491372E-2</v>
+      </c>
+      <c r="H38" s="71">
+        <f>+'vbp nacion'!H21/'vbp nacion'!H$7</f>
+        <v>3.4447707880580172E-2</v>
+      </c>
+      <c r="I38" s="71">
+        <f>+'vbp nacion'!I21/'vbp nacion'!I$7</f>
+        <v>3.4122453326536517E-2</v>
+      </c>
+      <c r="J38" s="71">
+        <f>+'vbp nacion'!J21/'vbp nacion'!J$7</f>
+        <v>3.284312392399618E-2</v>
+      </c>
+      <c r="K38" s="71">
+        <f>+'vbp nacion'!K21/'vbp nacion'!K$7</f>
+        <v>3.0556635498197794E-2</v>
+      </c>
+      <c r="L38" s="71">
+        <f>+'vbp nacion'!L21/'vbp nacion'!L$7</f>
+        <v>2.7651877053356973E-2</v>
+      </c>
+      <c r="M38" s="71">
+        <f>+'vbp nacion'!M21/'vbp nacion'!M$7</f>
+        <v>2.8586863922259592E-2</v>
+      </c>
+      <c r="N38" s="71">
+        <f>+'vbp nacion'!N21/'vbp nacion'!N$7</f>
+        <v>2.819376968961301E-2</v>
+      </c>
+      <c r="O38" s="71">
+        <f>+'vbp nacion'!O21/'vbp nacion'!O$7</f>
+        <v>2.9833216827093917E-2</v>
+      </c>
+      <c r="P38" s="71">
+        <f>+'vbp nacion'!P21/'vbp nacion'!P$7</f>
+        <v>3.0551863723668186E-2</v>
+      </c>
+      <c r="Q38" s="74">
+        <f t="shared" si="1"/>
+        <v>3.3260093773687466E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="71">
+        <f>+'vbp nacion'!B22/'vbp nacion'!B$7</f>
+        <v>3.7476093715694811E-2</v>
+      </c>
+      <c r="C39" s="71">
+        <f>+'vbp nacion'!C22/'vbp nacion'!C$7</f>
+        <v>3.813015041897995E-2</v>
+      </c>
+      <c r="D39" s="71">
+        <f>+'vbp nacion'!D22/'vbp nacion'!D$7</f>
+        <v>4.2520373455679328E-2</v>
+      </c>
+      <c r="E39" s="71">
+        <f>+'vbp nacion'!E22/'vbp nacion'!E$7</f>
+        <v>4.6926692653306463E-2</v>
+      </c>
+      <c r="F39" s="71">
+        <f>+'vbp nacion'!F22/'vbp nacion'!F$7</f>
+        <v>4.854217777546329E-2</v>
+      </c>
+      <c r="G39" s="71">
+        <f>+'vbp nacion'!G22/'vbp nacion'!G$7</f>
+        <v>4.1466766054449614E-2</v>
+      </c>
+      <c r="H39" s="71">
+        <f>+'vbp nacion'!H22/'vbp nacion'!H$7</f>
+        <v>5.0267457181389218E-2</v>
+      </c>
+      <c r="I39" s="71">
+        <f>+'vbp nacion'!I22/'vbp nacion'!I$7</f>
+        <v>5.5802355922695605E-2</v>
+      </c>
+      <c r="J39" s="71">
+        <f>+'vbp nacion'!J22/'vbp nacion'!J$7</f>
+        <v>5.1735611009624566E-2</v>
+      </c>
+      <c r="K39" s="71">
+        <f>+'vbp nacion'!K22/'vbp nacion'!K$7</f>
+        <v>5.203060434508644E-2</v>
+      </c>
+      <c r="L39" s="71">
+        <f>+'vbp nacion'!L22/'vbp nacion'!L$7</f>
+        <v>4.8083407935776513E-2</v>
+      </c>
+      <c r="M39" s="71">
+        <f>+'vbp nacion'!M22/'vbp nacion'!M$7</f>
+        <v>4.9366729786159899E-2</v>
+      </c>
+      <c r="N39" s="71">
+        <f>+'vbp nacion'!N22/'vbp nacion'!N$7</f>
+        <v>5.2898634262421779E-2</v>
+      </c>
+      <c r="O39" s="71">
+        <f>+'vbp nacion'!O22/'vbp nacion'!O$7</f>
+        <v>5.9866399994452327E-2</v>
+      </c>
+      <c r="P39" s="71">
+        <f>+'vbp nacion'!P22/'vbp nacion'!P$7</f>
+        <v>4.9276640685599594E-2</v>
+      </c>
+      <c r="Q39" s="74">
+        <f t="shared" si="1"/>
+        <v>4.8292673013118619E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="71">
+        <f>+'vbp nacion'!B23/'vbp nacion'!B$7</f>
+        <v>2.94848868506445E-3</v>
+      </c>
+      <c r="C40" s="71">
+        <f>+'vbp nacion'!C23/'vbp nacion'!C$7</f>
+        <v>2.8328452806205069E-3</v>
+      </c>
+      <c r="D40" s="71">
+        <f>+'vbp nacion'!D23/'vbp nacion'!D$7</f>
+        <v>2.3301398747279677E-3</v>
+      </c>
+      <c r="E40" s="71">
+        <f>+'vbp nacion'!E23/'vbp nacion'!E$7</f>
+        <v>2.87342850263137E-3</v>
+      </c>
+      <c r="F40" s="71">
+        <f>+'vbp nacion'!F23/'vbp nacion'!F$7</f>
+        <v>4.3883297830518654E-3</v>
+      </c>
+      <c r="G40" s="71">
+        <f>+'vbp nacion'!G23/'vbp nacion'!G$7</f>
+        <v>4.8048564421979707E-3</v>
+      </c>
+      <c r="H40" s="71">
+        <f>+'vbp nacion'!H23/'vbp nacion'!H$7</f>
+        <v>3.7160337417727275E-3</v>
+      </c>
+      <c r="I40" s="71">
+        <f>+'vbp nacion'!I23/'vbp nacion'!I$7</f>
+        <v>3.3846760245758349E-3</v>
+      </c>
+      <c r="J40" s="71">
+        <f>+'vbp nacion'!J23/'vbp nacion'!J$7</f>
+        <v>3.1699688625935799E-3</v>
+      </c>
+      <c r="K40" s="71">
+        <f>+'vbp nacion'!K23/'vbp nacion'!K$7</f>
+        <v>2.7486499996352302E-3</v>
+      </c>
+      <c r="L40" s="71">
+        <f>+'vbp nacion'!L23/'vbp nacion'!L$7</f>
+        <v>3.2263000268860646E-3</v>
+      </c>
+      <c r="M40" s="71">
+        <f>+'vbp nacion'!M23/'vbp nacion'!M$7</f>
+        <v>3.8151672064863948E-3</v>
+      </c>
+      <c r="N40" s="71">
+        <f>+'vbp nacion'!N23/'vbp nacion'!N$7</f>
+        <v>3.0017200349685105E-3</v>
+      </c>
+      <c r="O40" s="71">
+        <f>+'vbp nacion'!O23/'vbp nacion'!O$7</f>
+        <v>2.3582912403654465E-3</v>
+      </c>
+      <c r="P40" s="71">
+        <f>+'vbp nacion'!P23/'vbp nacion'!P$7</f>
+        <v>2.249156465718302E-3</v>
+      </c>
+      <c r="Q40" s="74">
+        <f t="shared" si="1"/>
+        <v>3.1898701447530811E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="71">
+        <f>+'vbp nacion'!B24/'vbp nacion'!B$7</f>
+        <v>1.5593865619863923E-2</v>
+      </c>
+      <c r="C41" s="71">
+        <f>+'vbp nacion'!C24/'vbp nacion'!C$7</f>
+        <v>1.5361322051548476E-2</v>
+      </c>
+      <c r="D41" s="71">
+        <f>+'vbp nacion'!D24/'vbp nacion'!D$7</f>
+        <v>1.4541753985915777E-2</v>
+      </c>
+      <c r="E41" s="71">
+        <f>+'vbp nacion'!E24/'vbp nacion'!E$7</f>
+        <v>1.6193095894581962E-2</v>
+      </c>
+      <c r="F41" s="71">
+        <f>+'vbp nacion'!F24/'vbp nacion'!F$7</f>
+        <v>1.6000987328848346E-2</v>
+      </c>
+      <c r="G41" s="71">
+        <f>+'vbp nacion'!G24/'vbp nacion'!G$7</f>
+        <v>1.439369021888477E-2</v>
+      </c>
+      <c r="H41" s="71">
+        <f>+'vbp nacion'!H24/'vbp nacion'!H$7</f>
+        <v>1.3123019143919031E-2</v>
+      </c>
+      <c r="I41" s="71">
+        <f>+'vbp nacion'!I24/'vbp nacion'!I$7</f>
+        <v>1.2572990266150995E-2</v>
+      </c>
+      <c r="J41" s="71">
+        <f>+'vbp nacion'!J24/'vbp nacion'!J$7</f>
+        <v>1.1265290195284033E-2</v>
+      </c>
+      <c r="K41" s="71">
+        <f>+'vbp nacion'!K24/'vbp nacion'!K$7</f>
+        <v>1.141821089520279E-2</v>
+      </c>
+      <c r="L41" s="71">
+        <f>+'vbp nacion'!L24/'vbp nacion'!L$7</f>
+        <v>1.2439645416245591E-2</v>
+      </c>
+      <c r="M41" s="71">
+        <f>+'vbp nacion'!M24/'vbp nacion'!M$7</f>
+        <v>1.2844690710763426E-2</v>
+      </c>
+      <c r="N41" s="71">
+        <f>+'vbp nacion'!N24/'vbp nacion'!N$7</f>
+        <v>1.2017131179750803E-2</v>
+      </c>
+      <c r="O41" s="71">
+        <f>+'vbp nacion'!O24/'vbp nacion'!O$7</f>
+        <v>1.165232740857727E-2</v>
+      </c>
+      <c r="P41" s="71">
+        <f>+'vbp nacion'!P24/'vbp nacion'!P$7</f>
+        <v>1.1248769962349183E-2</v>
+      </c>
+      <c r="Q41" s="74">
+        <f t="shared" si="1"/>
+        <v>1.3377786018525762E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="71">
+        <f>+'vbp nacion'!B25/'vbp nacion'!B$7</f>
+        <v>4.3519176483772541E-3</v>
+      </c>
+      <c r="C42" s="71">
+        <f>+'vbp nacion'!C25/'vbp nacion'!C$7</f>
+        <v>5.5270510924272402E-3</v>
+      </c>
+      <c r="D42" s="71">
+        <f>+'vbp nacion'!D25/'vbp nacion'!D$7</f>
+        <v>7.4624441786936939E-3</v>
+      </c>
+      <c r="E42" s="71">
+        <f>+'vbp nacion'!E25/'vbp nacion'!E$7</f>
+        <v>6.8264530529649793E-3</v>
+      </c>
+      <c r="F42" s="71">
+        <f>+'vbp nacion'!F25/'vbp nacion'!F$7</f>
+        <v>5.3397389751460292E-3</v>
+      </c>
+      <c r="G42" s="71">
+        <f>+'vbp nacion'!G25/'vbp nacion'!G$7</f>
+        <v>4.0107249727975563E-3</v>
+      </c>
+      <c r="H42" s="71">
+        <f>+'vbp nacion'!H25/'vbp nacion'!H$7</f>
+        <v>1.6802469230726771E-2</v>
+      </c>
+      <c r="I42" s="71">
+        <f>+'vbp nacion'!I25/'vbp nacion'!I$7</f>
+        <v>3.1288034623796229E-2</v>
+      </c>
+      <c r="J42" s="71">
+        <f>+'vbp nacion'!J25/'vbp nacion'!J$7</f>
+        <v>3.8810539308455384E-2</v>
+      </c>
+      <c r="K42" s="71">
+        <f>+'vbp nacion'!K25/'vbp nacion'!K$7</f>
+        <v>3.7466957893076414E-2</v>
+      </c>
+      <c r="L42" s="71">
+        <f>+'vbp nacion'!L25/'vbp nacion'!L$7</f>
+        <v>3.2292298755008456E-2</v>
+      </c>
+      <c r="M42" s="71">
+        <f>+'vbp nacion'!M25/'vbp nacion'!M$7</f>
+        <v>3.3875714535020425E-2</v>
+      </c>
+      <c r="N42" s="71">
+        <f>+'vbp nacion'!N25/'vbp nacion'!N$7</f>
+        <v>3.2671493921112731E-2</v>
+      </c>
+      <c r="O42" s="71">
+        <f>+'vbp nacion'!O25/'vbp nacion'!O$7</f>
+        <v>3.2731819237960674E-2</v>
+      </c>
+      <c r="P42" s="71">
+        <f>+'vbp nacion'!P25/'vbp nacion'!P$7</f>
+        <v>3.1970851485272268E-2</v>
+      </c>
+      <c r="Q42" s="74">
+        <f t="shared" si="1"/>
+        <v>2.1428567260722408E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="71">
+        <f>+'vbp nacion'!B26/'vbp nacion'!B$7</f>
+        <v>5.191913849399479E-3</v>
+      </c>
+      <c r="C43" s="71">
+        <f>+'vbp nacion'!C26/'vbp nacion'!C$7</f>
+        <v>5.8308632827400479E-3</v>
+      </c>
+      <c r="D43" s="71">
+        <f>+'vbp nacion'!D26/'vbp nacion'!D$7</f>
+        <v>5.7872279088617661E-3</v>
+      </c>
+      <c r="E43" s="71">
+        <f>+'vbp nacion'!E26/'vbp nacion'!E$7</f>
+        <v>6.5403852736066583E-3</v>
+      </c>
+      <c r="F43" s="71">
+        <f>+'vbp nacion'!F26/'vbp nacion'!F$7</f>
+        <v>6.8622762506604876E-3</v>
+      </c>
+      <c r="G43" s="71">
+        <f>+'vbp nacion'!G26/'vbp nacion'!G$7</f>
+        <v>7.0457586630717625E-3</v>
+      </c>
+      <c r="H43" s="71">
+        <f>+'vbp nacion'!H26/'vbp nacion'!H$7</f>
+        <v>6.3232913470563992E-3</v>
+      </c>
+      <c r="I43" s="71">
+        <f>+'vbp nacion'!I26/'vbp nacion'!I$7</f>
+        <v>5.30372085263877E-3</v>
+      </c>
+      <c r="J43" s="71">
+        <f>+'vbp nacion'!J26/'vbp nacion'!J$7</f>
+        <v>5.6518023306754662E-3</v>
+      </c>
+      <c r="K43" s="71">
+        <f>+'vbp nacion'!K26/'vbp nacion'!K$7</f>
+        <v>5.0883719137375782E-3</v>
+      </c>
+      <c r="L43" s="71">
+        <f>+'vbp nacion'!L26/'vbp nacion'!L$7</f>
+        <v>4.7764449314044366E-3</v>
+      </c>
+      <c r="M43" s="71">
+        <f>+'vbp nacion'!M26/'vbp nacion'!M$7</f>
+        <v>5.3347881670760162E-3</v>
+      </c>
+      <c r="N43" s="71">
+        <f>+'vbp nacion'!N26/'vbp nacion'!N$7</f>
+        <v>4.4494881565027428E-3</v>
+      </c>
+      <c r="O43" s="71">
+        <f>+'vbp nacion'!O26/'vbp nacion'!O$7</f>
+        <v>4.5814629150691816E-3</v>
+      </c>
+      <c r="P43" s="71">
+        <f>+'vbp nacion'!P26/'vbp nacion'!P$7</f>
+        <v>4.796557395438732E-3</v>
+      </c>
+      <c r="Q43" s="74">
+        <f t="shared" si="1"/>
+        <v>5.5709568825293007E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="71">
+        <f>+'vbp nacion'!B27/'vbp nacion'!B$7</f>
+        <v>5.92212810815912E-2</v>
+      </c>
+      <c r="C44" s="71">
+        <f>+'vbp nacion'!C27/'vbp nacion'!C$7</f>
+        <v>6.7126470599709304E-2</v>
+      </c>
+      <c r="D44" s="71">
+        <f>+'vbp nacion'!D27/'vbp nacion'!D$7</f>
+        <v>7.5744957245529335E-2</v>
+      </c>
+      <c r="E44" s="71">
+        <f>+'vbp nacion'!E27/'vbp nacion'!E$7</f>
+        <v>8.1639417176759377E-2</v>
+      </c>
+      <c r="F44" s="71">
+        <f>+'vbp nacion'!F27/'vbp nacion'!F$7</f>
+        <v>8.5410606177826351E-2</v>
+      </c>
+      <c r="G44" s="71">
+        <f>+'vbp nacion'!G27/'vbp nacion'!G$7</f>
+        <v>7.4075341046161522E-2</v>
+      </c>
+      <c r="H44" s="71">
+        <f>+'vbp nacion'!H27/'vbp nacion'!H$7</f>
+        <v>9.2408173889071271E-2</v>
+      </c>
+      <c r="I44" s="71">
+        <f>+'vbp nacion'!I27/'vbp nacion'!I$7</f>
+        <v>9.7688926457109984E-2</v>
+      </c>
+      <c r="J44" s="71">
+        <f>+'vbp nacion'!J27/'vbp nacion'!J$7</f>
+        <v>9.3641437859313864E-2</v>
+      </c>
+      <c r="K44" s="71">
+        <f>+'vbp nacion'!K27/'vbp nacion'!K$7</f>
+        <v>9.8703291083859848E-2</v>
+      </c>
+      <c r="L44" s="71">
+        <f>+'vbp nacion'!L27/'vbp nacion'!L$7</f>
+        <v>8.2586554946416715E-2</v>
+      </c>
+      <c r="M44" s="71">
+        <f>+'vbp nacion'!M27/'vbp nacion'!M$7</f>
+        <v>7.4742709657747042E-2</v>
+      </c>
+      <c r="N44" s="71">
+        <f>+'vbp nacion'!N27/'vbp nacion'!N$7</f>
+        <v>7.0969327498722548E-2</v>
+      </c>
+      <c r="O44" s="71">
+        <f>+'vbp nacion'!O27/'vbp nacion'!O$7</f>
+        <v>7.406922923935684E-2</v>
+      </c>
+      <c r="P44" s="71">
+        <f>+'vbp nacion'!P27/'vbp nacion'!P$7</f>
+        <v>7.9345292743971702E-2</v>
+      </c>
+      <c r="Q44" s="74">
+        <f t="shared" si="1"/>
+        <v>8.049153444687647E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="71">
+        <f>+'vbp nacion'!B28/'vbp nacion'!B$7</f>
+        <v>3.7405933734325205E-3</v>
+      </c>
+      <c r="C45" s="71">
+        <f>+'vbp nacion'!C28/'vbp nacion'!C$7</f>
+        <v>4.1793391019347261E-3</v>
+      </c>
+      <c r="D45" s="71">
+        <f>+'vbp nacion'!D28/'vbp nacion'!D$7</f>
+        <v>3.727946814118554E-3</v>
+      </c>
+      <c r="E45" s="71">
+        <f>+'vbp nacion'!E28/'vbp nacion'!E$7</f>
+        <v>3.4848691994155898E-3</v>
+      </c>
+      <c r="F45" s="71">
+        <f>+'vbp nacion'!F28/'vbp nacion'!F$7</f>
+        <v>3.2943097177608378E-3</v>
+      </c>
+      <c r="G45" s="71">
+        <f>+'vbp nacion'!G28/'vbp nacion'!G$7</f>
+        <v>2.9520346363103096E-3</v>
+      </c>
+      <c r="H45" s="71">
+        <f>+'vbp nacion'!H28/'vbp nacion'!H$7</f>
+        <v>3.1767833224964001E-3</v>
+      </c>
+      <c r="I45" s="71">
+        <f>+'vbp nacion'!I28/'vbp nacion'!I$7</f>
+        <v>2.8015431150219474E-3</v>
+      </c>
+      <c r="J45" s="71">
+        <f>+'vbp nacion'!J28/'vbp nacion'!J$7</f>
+        <v>2.1874565599908028E-3</v>
+      </c>
+      <c r="K45" s="71">
+        <f>+'vbp nacion'!K28/'vbp nacion'!K$7</f>
+        <v>2.6718186992867156E-3</v>
+      </c>
+      <c r="L45" s="71">
+        <f>+'vbp nacion'!L28/'vbp nacion'!L$7</f>
+        <v>1.9319578584774978E-3</v>
+      </c>
+      <c r="M45" s="71">
+        <f>+'vbp nacion'!M28/'vbp nacion'!M$7</f>
+        <v>2.2696847322659329E-3</v>
+      </c>
+      <c r="N45" s="71">
+        <f>+'vbp nacion'!N28/'vbp nacion'!N$7</f>
+        <v>1.9397357200627713E-3</v>
+      </c>
+      <c r="O45" s="71">
+        <f>+'vbp nacion'!O28/'vbp nacion'!O$7</f>
+        <v>2.3161390978923835E-3</v>
+      </c>
+      <c r="P45" s="71">
+        <f>+'vbp nacion'!P28/'vbp nacion'!P$7</f>
+        <v>1.7456213044116534E-3</v>
+      </c>
+      <c r="Q45" s="74">
+        <f t="shared" si="1"/>
+        <v>2.8279888835252426E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="71">
+        <f>+'vbp nacion'!B29/'vbp nacion'!B$7</f>
+        <v>2.009500774462248E-2</v>
+      </c>
+      <c r="C46" s="71">
+        <f>+'vbp nacion'!C29/'vbp nacion'!C$7</f>
+        <v>1.9781265424111665E-2</v>
+      </c>
+      <c r="D46" s="71">
+        <f>+'vbp nacion'!D29/'vbp nacion'!D$7</f>
+        <v>2.0611913296775884E-2</v>
+      </c>
+      <c r="E46" s="71">
+        <f>+'vbp nacion'!E29/'vbp nacion'!E$7</f>
+        <v>2.1530392097715709E-2</v>
+      </c>
+      <c r="F46" s="71">
+        <f>+'vbp nacion'!F29/'vbp nacion'!F$7</f>
+        <v>2.0447010451821651E-2</v>
+      </c>
+      <c r="G46" s="71">
+        <f>+'vbp nacion'!G29/'vbp nacion'!G$7</f>
+        <v>1.9616616773334559E-2</v>
+      </c>
+      <c r="H46" s="71">
+        <f>+'vbp nacion'!H29/'vbp nacion'!H$7</f>
+        <v>1.8865668143363479E-2</v>
+      </c>
+      <c r="I46" s="71">
+        <f>+'vbp nacion'!I29/'vbp nacion'!I$7</f>
+        <v>1.9031927012177069E-2</v>
+      </c>
+      <c r="J46" s="71">
+        <f>+'vbp nacion'!J29/'vbp nacion'!J$7</f>
+        <v>1.9192754931067847E-2</v>
+      </c>
+      <c r="K46" s="71">
+        <f>+'vbp nacion'!K29/'vbp nacion'!K$7</f>
+        <v>1.8640419029070945E-2</v>
+      </c>
+      <c r="L46" s="71">
+        <f>+'vbp nacion'!L29/'vbp nacion'!L$7</f>
+        <v>1.8141365824646996E-2</v>
+      </c>
+      <c r="M46" s="71">
+        <f>+'vbp nacion'!M29/'vbp nacion'!M$7</f>
+        <v>1.9890980709469944E-2</v>
+      </c>
+      <c r="N46" s="71">
+        <f>+'vbp nacion'!N29/'vbp nacion'!N$7</f>
+        <v>1.8966264490107444E-2</v>
+      </c>
+      <c r="O46" s="71">
+        <f>+'vbp nacion'!O29/'vbp nacion'!O$7</f>
+        <v>1.9777236565756487E-2</v>
+      </c>
+      <c r="P46" s="71">
+        <f>+'vbp nacion'!P29/'vbp nacion'!P$7</f>
+        <v>1.7291161859397327E-2</v>
+      </c>
+      <c r="Q46" s="74">
+        <f t="shared" si="1"/>
+        <v>1.9458665623562632E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="71">
+        <f>+'vbp nacion'!B30/'vbp nacion'!B$7</f>
+        <v>1.4035560359873423E-3</v>
+      </c>
+      <c r="C47" s="71">
+        <f>+'vbp nacion'!C30/'vbp nacion'!C$7</f>
+        <v>1.4011594929482084E-3</v>
+      </c>
+      <c r="D47" s="71">
+        <f>+'vbp nacion'!D30/'vbp nacion'!D$7</f>
+        <v>1.401821620523627E-3</v>
+      </c>
+      <c r="E47" s="71">
+        <f>+'vbp nacion'!E30/'vbp nacion'!E$7</f>
+        <v>1.4009511819401614E-3</v>
+      </c>
+      <c r="F47" s="71">
+        <f>+'vbp nacion'!F30/'vbp nacion'!F$7</f>
+        <v>1.4149746069940388E-3</v>
+      </c>
+      <c r="G47" s="71">
+        <f>+'vbp nacion'!G30/'vbp nacion'!G$7</f>
+        <v>1.411041705727839E-3</v>
+      </c>
+      <c r="H47" s="71">
+        <f>+'vbp nacion'!H30/'vbp nacion'!H$7</f>
+        <v>1.3951939131569564E-3</v>
+      </c>
+      <c r="I47" s="71">
+        <f>+'vbp nacion'!I30/'vbp nacion'!I$7</f>
+        <v>1.3863627263573355E-3</v>
+      </c>
+      <c r="J47" s="71">
+        <f>+'vbp nacion'!J30/'vbp nacion'!J$7</f>
+        <v>1.3806219099713191E-3</v>
+      </c>
+      <c r="K47" s="71">
+        <f>+'vbp nacion'!K30/'vbp nacion'!K$7</f>
+        <v>1.3764755206756316E-3</v>
+      </c>
+      <c r="L47" s="71">
+        <f>+'vbp nacion'!L30/'vbp nacion'!L$7</f>
+        <v>1.3740613721624614E-3</v>
+      </c>
+      <c r="M47" s="71">
+        <f>+'vbp nacion'!M30/'vbp nacion'!M$7</f>
+        <v>1.3664753830980928E-3</v>
+      </c>
+      <c r="N47" s="71">
+        <f>+'vbp nacion'!N30/'vbp nacion'!N$7</f>
+        <v>1.3475223252111027E-3</v>
+      </c>
+      <c r="O47" s="71">
+        <f>+'vbp nacion'!O30/'vbp nacion'!O$7</f>
+        <v>1.3490068933878397E-3</v>
+      </c>
+      <c r="P47" s="71">
+        <f>+'vbp nacion'!P30/'vbp nacion'!P$7</f>
+        <v>1.3434641300895903E-3</v>
+      </c>
+      <c r="Q47" s="74">
+        <f t="shared" si="1"/>
+        <v>1.383512587882103E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="71">
+        <f>+'vbp nacion'!B31/'vbp nacion'!B$7</f>
+        <v>4.6586414836864397E-3</v>
+      </c>
+      <c r="C48" s="71">
+        <f>+'vbp nacion'!C31/'vbp nacion'!C$7</f>
+        <v>4.4903711086237558E-3</v>
+      </c>
+      <c r="D48" s="71">
+        <f>+'vbp nacion'!D31/'vbp nacion'!D$7</f>
+        <v>4.5443279918807259E-3</v>
+      </c>
+      <c r="E48" s="71">
+        <f>+'vbp nacion'!E31/'vbp nacion'!E$7</f>
+        <v>4.9824092638368267E-3</v>
+      </c>
+      <c r="F48" s="71">
+        <f>+'vbp nacion'!F31/'vbp nacion'!F$7</f>
+        <v>5.4909976474104638E-3</v>
+      </c>
+      <c r="G48" s="71">
+        <f>+'vbp nacion'!G31/'vbp nacion'!G$7</f>
+        <v>5.0054940867550399E-3</v>
+      </c>
+      <c r="H48" s="71">
+        <f>+'vbp nacion'!H31/'vbp nacion'!H$7</f>
+        <v>5.1368313710541324E-3</v>
+      </c>
+      <c r="I48" s="71">
+        <f>+'vbp nacion'!I31/'vbp nacion'!I$7</f>
+        <v>5.5789372924245359E-3</v>
+      </c>
+      <c r="J48" s="71">
+        <f>+'vbp nacion'!J31/'vbp nacion'!J$7</f>
+        <v>5.3406616811001954E-3</v>
+      </c>
+      <c r="K48" s="71">
+        <f>+'vbp nacion'!K31/'vbp nacion'!K$7</f>
+        <v>5.2880613623910548E-3</v>
+      </c>
+      <c r="L48" s="71">
+        <f>+'vbp nacion'!L31/'vbp nacion'!L$7</f>
+        <v>5.1965189671952074E-3</v>
+      </c>
+      <c r="M48" s="71">
+        <f>+'vbp nacion'!M31/'vbp nacion'!M$7</f>
+        <v>5.1754575590677622E-3</v>
+      </c>
+      <c r="N48" s="71">
+        <f>+'vbp nacion'!N31/'vbp nacion'!N$7</f>
+        <v>5.0981054221608865E-3</v>
+      </c>
+      <c r="O48" s="71">
+        <f>+'vbp nacion'!O31/'vbp nacion'!O$7</f>
+        <v>5.1122601092758214E-3</v>
+      </c>
+      <c r="P48" s="71">
+        <f>+'vbp nacion'!P31/'vbp nacion'!P$7</f>
+        <v>5.0764399084185785E-3</v>
+      </c>
+      <c r="Q48" s="74">
+        <f t="shared" si="1"/>
+        <v>5.0783676836854271E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="V3:W26">
+    <sortCondition descending="1" ref="W3:W26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="topRight" activeCell="Q7" sqref="Q7:Q76"/>
       <selection pane="bottomLeft" activeCell="Q7" sqref="Q7:Q76"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -40274,12 +45414,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40842,514 +45982,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3">
-        <v>14795034502.520859</v>
-      </c>
-      <c r="C3">
-        <v>91866330490.070663</v>
-      </c>
-      <c r="D3">
-        <f>+B3/$B$3*100</f>
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <f>+C3/$C$3*100</f>
-        <v>100</v>
-      </c>
-      <c r="F3" s="73" t="str">
-        <f>+IFERROR(D3/D2-1,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G3" s="73" t="str">
-        <f t="shared" ref="G3:G17" si="0">+IFERROR(E3/E2-1,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="H3" s="71">
-        <f>+B3/C3</f>
-        <v>0.1610495861061956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4">
-        <v>16197448450.458136</v>
-      </c>
-      <c r="C4">
-        <v>98685714521.410446</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D17" si="1">+B4/$B$3*100</f>
-        <v>109.47895016870915</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E17" si="2">+C4/$C$3*100</f>
-        <v>107.42315927387223</v>
-      </c>
-      <c r="F4" s="73">
-        <f t="shared" ref="F4:F17" si="3">+IFERROR(D4/D3-1,"-")</f>
-        <v>9.4789501687091438E-2</v>
-      </c>
-      <c r="G4" s="73">
-        <f t="shared" si="0"/>
-        <v>7.4231592738722263E-2</v>
-      </c>
-      <c r="H4" s="71">
-        <f t="shared" ref="H4:H17" si="4">+B4/C4</f>
-        <v>0.1641316428523604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5">
-        <v>18695570668.547733</v>
-      </c>
-      <c r="C5">
-        <v>107665903719.49126</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>126.36381932980474</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>117.19843727852859</v>
-      </c>
-      <c r="F5" s="73">
-        <f t="shared" si="3"/>
-        <v>0.15422936678763999</v>
-      </c>
-      <c r="G5" s="73">
-        <f t="shared" si="0"/>
-        <v>9.0997863689100456E-2</v>
-      </c>
-      <c r="H5" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17364430170257503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6">
-        <v>18742695650.168762</v>
-      </c>
-      <c r="C6">
-        <v>115777417926.59608</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>126.68233823297459</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>126.02812946698666</v>
-      </c>
-      <c r="F6" s="73">
-        <f t="shared" si="3"/>
-        <v>2.5206495408192087E-3</v>
-      </c>
-      <c r="G6" s="73">
-        <f t="shared" si="0"/>
-        <v>7.5339675114215243E-2</v>
-      </c>
-      <c r="H6" s="71">
-        <f t="shared" si="4"/>
-        <v>0.16188559034933564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7">
-        <v>19584189704.450455</v>
-      </c>
-      <c r="C7">
-        <v>119969834518.65799</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>132.3700171237424</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>130.59173461992683</v>
-      </c>
-      <c r="F7" s="73">
-        <f t="shared" si="3"/>
-        <v>4.4897173276892799E-2</v>
-      </c>
-      <c r="G7" s="73">
-        <f t="shared" si="0"/>
-        <v>3.6211004418149395E-2</v>
-      </c>
-      <c r="H7" s="71">
-        <f t="shared" si="4"/>
-        <v>0.1632426166379739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8">
-        <v>19316927919.816742</v>
-      </c>
-      <c r="C8">
-        <v>111260235188.14905</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>130.56358818578909</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>121.11100399310557</v>
-      </c>
-      <c r="F8" s="73">
-        <f t="shared" si="3"/>
-        <v>-1.3646813509622935E-2</v>
-      </c>
-      <c r="G8" s="73">
-        <f t="shared" si="0"/>
-        <v>-7.2598244095722464E-2</v>
-      </c>
-      <c r="H8" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17361933387207415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9">
-        <v>21297377238.820885</v>
-      </c>
-      <c r="C9">
-        <v>123396437156.71632</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>143.94949356280392</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>134.32172211347179</v>
-      </c>
-      <c r="F9" s="73">
-        <f t="shared" si="3"/>
-        <v>0.10252403111016672</v>
-      </c>
-      <c r="G9" s="73">
-        <f t="shared" si="0"/>
-        <v>0.10907942040607854</v>
-      </c>
-      <c r="H9" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17259312934434828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10">
-        <v>22148474991.514324</v>
-      </c>
-      <c r="C10">
-        <v>132856759558.09592</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>149.70208408598538</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>144.61964339857428</v>
-      </c>
-      <c r="F10" s="73">
-        <f t="shared" si="3"/>
-        <v>3.9962561734693702E-2</v>
-      </c>
-      <c r="G10" s="73">
-        <f t="shared" si="0"/>
-        <v>7.6666090361788619E-2</v>
-      </c>
-      <c r="H10" s="71">
-        <f t="shared" si="4"/>
-        <v>0.16670943251351231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11">
-        <v>21610991900.765026</v>
-      </c>
-      <c r="C11">
-        <v>128986208718.31839</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>146.0692227320107</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>140.40640137711804</v>
-      </c>
-      <c r="F11" s="73">
-        <f t="shared" si="3"/>
-        <v>-2.4267273072083873E-2</v>
-      </c>
-      <c r="G11" s="73">
-        <f t="shared" si="0"/>
-        <v>-2.9133262414736238E-2</v>
-      </c>
-      <c r="H11" s="71">
-        <f t="shared" si="4"/>
-        <v>0.16754498109142324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12">
-        <v>21762917696.923882</v>
-      </c>
-      <c r="C12">
-        <v>130925557184.75768</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>147.09609290343863</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>142.51745605416198</v>
-      </c>
-      <c r="F12" s="73">
-        <f t="shared" si="3"/>
-        <v>7.0300242051120065E-3</v>
-      </c>
-      <c r="G12" s="73">
-        <f t="shared" si="0"/>
-        <v>1.5035316455222381E-2</v>
-      </c>
-      <c r="H12" s="71">
-        <f t="shared" si="4"/>
-        <v>0.16622360190694316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13">
-        <v>21242145916.292465</v>
-      </c>
-      <c r="C13">
-        <v>124308517541.1987</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>143.57618370320876</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>135.31455635384776</v>
-      </c>
-      <c r="F13" s="73">
-        <f t="shared" si="3"/>
-        <v>-2.3929318112755893E-2</v>
-      </c>
-      <c r="G13" s="73">
-        <f t="shared" si="0"/>
-        <v>-5.0540473425071841E-2</v>
-      </c>
-      <c r="H13" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17088246514767044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14">
-        <v>22153353278.617786</v>
-      </c>
-      <c r="C14">
-        <v>125260636657.61076</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>149.73505654781121</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>136.35097427903634</v>
-      </c>
-      <c r="F14" s="73">
-        <f t="shared" si="3"/>
-        <v>4.2896201067258222E-2</v>
-      </c>
-      <c r="G14" s="73">
-        <f t="shared" si="0"/>
-        <v>7.6593232325894434E-3</v>
-      </c>
-      <c r="H14" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17685806067848819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15">
-        <v>20702936425.304623</v>
-      </c>
-      <c r="C15">
-        <v>118244613424.15857</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>139.9316535678044</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>128.71376574352124</v>
-      </c>
-      <c r="F15" s="73">
-        <f t="shared" si="3"/>
-        <v>-6.5471661787341873E-2</v>
-      </c>
-      <c r="G15" s="73">
-        <f t="shared" si="0"/>
-        <v>-5.6011396881447184E-2</v>
-      </c>
-      <c r="H15" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17508566205075693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16">
-        <v>20821702791.163467</v>
-      </c>
-      <c r="C16">
-        <v>121282819388.8535</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>140.73439833895455</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>132.02096866377209</v>
-      </c>
-      <c r="F16" s="73">
-        <f t="shared" si="3"/>
-        <v>5.7366918112002896E-3</v>
-      </c>
-      <c r="G16" s="73">
-        <f t="shared" si="0"/>
-        <v>2.5694244132681954E-2</v>
-      </c>
-      <c r="H16" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17167891459057791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17">
-        <v>20067274759.585041</v>
-      </c>
-      <c r="C17">
-        <v>115220029679.37222</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>135.63520082474881</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>125.42139112852205</v>
-      </c>
-      <c r="F17" s="73">
-        <f t="shared" si="3"/>
-        <v>-3.6232773041914634E-2</v>
-      </c>
-      <c r="G17" s="73">
-        <f t="shared" si="0"/>
-        <v>-4.9988858603648767E-2</v>
-      </c>
-      <c r="H17" s="71">
-        <f t="shared" si="4"/>
-        <v>0.17416481158204106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>